--- a/forms/app/covid_symptoms_daily_checks.xlsx
+++ b/forms/app/covid_symptoms_daily_checks.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="537">
   <si>
     <t>form_title</t>
   </si>
@@ -1651,13 +1651,7 @@
     <t>Other Nationality</t>
   </si>
   <si>
-    <t>patient_dob</t>
-  </si>
-  <si>
-    <t>patient_phone</t>
-  </si>
-  <si>
-    <t>patient_household</t>
+    <t>../inputs/contact/_id</t>
   </si>
 </sst>
 </file>
@@ -2223,13 +2217,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ147"/>
+  <dimension ref="A1:AJ145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD23"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2975,7 +2969,7 @@
         <v>78</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>45</v>
@@ -2988,9 +2982,6 @@
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
-      <c r="L19" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
@@ -2999,7 +2990,9 @@
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
       <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
+      <c r="U19" s="21" t="s">
+        <v>536</v>
+      </c>
       <c r="V19" s="22"/>
       <c r="W19" s="22"/>
       <c r="X19" s="22"/>
@@ -3013,7 +3006,7 @@
         <v>78</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>45</v>
@@ -3026,9 +3019,7 @@
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="21" t="s">
-        <v>97</v>
-      </c>
+      <c r="L20" s="21"/>
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
@@ -3037,7 +3028,9 @@
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
       <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
+      <c r="U20" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="V20" s="22"/>
       <c r="W20" s="22"/>
       <c r="X20" s="22"/>
@@ -3051,7 +3044,7 @@
         <v>78</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>536</v>
+        <v>94</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>45</v>
@@ -3071,103 +3064,122 @@
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
-      <c r="S21" s="22"/>
+      <c r="S21" s="21"/>
       <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
+      <c r="U21" s="21" t="s">
+        <v>97</v>
+      </c>
       <c r="V21" s="22"/>
       <c r="W21" s="22"/>
       <c r="X21" s="22"/>
       <c r="Y21" s="22"/>
       <c r="Z21" s="22"/>
       <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
     </row>
     <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>537</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
     </row>
     <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>538</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
+      <c r="A23" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="36"/>
     </row>
     <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+      <c r="A24" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="36"/>
     </row>
     <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>520</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
@@ -3203,107 +3215,115 @@
       <c r="AJ25" s="36"/>
     </row>
     <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
     </row>
     <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
+      <c r="A27" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>203</v>
+      </c>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="36"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="36"/>
-      <c r="AI27" s="36"/>
-      <c r="AJ27" s="36"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="L27" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="35"/>
+      <c r="AH27" s="35"/>
+      <c r="AI27" s="35"/>
+      <c r="AJ27" s="35"/>
     </row>
     <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
+      <c r="A28" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="35"/>
+      <c r="AH28" s="35"/>
+      <c r="AI28" s="35"/>
+      <c r="AJ28" s="35"/>
     </row>
     <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
@@ -3311,13 +3331,11 @@
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="L29" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="J29" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
       <c r="M29" s="35"/>
       <c r="N29" s="35"/>
       <c r="O29" s="35"/>
@@ -3345,13 +3363,13 @@
     </row>
     <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -3359,10 +3377,10 @@
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
-      <c r="J30" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="K30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35" t="s">
+        <v>209</v>
+      </c>
       <c r="L30" s="35"/>
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
@@ -3383,7 +3401,9 @@
       <c r="AC30" s="35"/>
       <c r="AD30" s="35"/>
       <c r="AE30" s="35"/>
-      <c r="AF30" s="35"/>
+      <c r="AF30" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="AG30" s="35"/>
       <c r="AH30" s="35"/>
       <c r="AI30" s="35"/>
@@ -3394,10 +3414,10 @@
         <v>110</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -3408,7 +3428,9 @@
       <c r="J31" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="K31" s="35"/>
+      <c r="K31" s="35" t="s">
+        <v>209</v>
+      </c>
       <c r="L31" s="35"/>
       <c r="M31" s="35"/>
       <c r="N31" s="35"/>
@@ -3437,13 +3459,13 @@
     </row>
     <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
@@ -3451,7 +3473,9 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
+      <c r="J32" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="K32" s="35" t="s">
         <v>209</v>
       </c>
@@ -3475,9 +3499,7 @@
       <c r="AC32" s="35"/>
       <c r="AD32" s="35"/>
       <c r="AE32" s="35"/>
-      <c r="AF32" s="35" t="s">
-        <v>50</v>
-      </c>
+      <c r="AF32" s="35"/>
       <c r="AG32" s="35"/>
       <c r="AH32" s="35"/>
       <c r="AI32" s="35"/>
@@ -3488,10 +3510,10 @@
         <v>110</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>213</v>
+        <v>216</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>217</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -3503,7 +3525,7 @@
         <v>57</v>
       </c>
       <c r="K33" s="35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L33" s="35"/>
       <c r="M33" s="35"/>
@@ -3536,10 +3558,10 @@
         <v>110</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -3584,10 +3606,10 @@
         <v>110</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>217</v>
+        <v>225</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>219</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
@@ -3632,10 +3654,10 @@
         <v>110</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -3647,7 +3669,7 @@
         <v>57</v>
       </c>
       <c r="K36" s="35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L36" s="35"/>
       <c r="M36" s="35"/>
@@ -3680,10 +3702,10 @@
         <v>110</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
@@ -3695,7 +3717,7 @@
         <v>57</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L37" s="35"/>
       <c r="M37" s="35"/>
@@ -3728,10 +3750,10 @@
         <v>110</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
@@ -3743,7 +3765,7 @@
         <v>57</v>
       </c>
       <c r="K38" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
@@ -3776,10 +3798,10 @@
         <v>110</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
@@ -3791,7 +3813,7 @@
         <v>57</v>
       </c>
       <c r="K39" s="35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L39" s="35"/>
       <c r="M39" s="35"/>
@@ -3819,15 +3841,15 @@
       <c r="AI39" s="35"/>
       <c r="AJ39" s="35"/>
     </row>
-    <row r="40" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
@@ -3835,12 +3857,8 @@
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
-      <c r="J40" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="K40" s="35" t="s">
-        <v>209</v>
-      </c>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
       <c r="L40" s="35"/>
       <c r="M40" s="35"/>
       <c r="N40" s="35"/>
@@ -3850,7 +3868,9 @@
       <c r="R40" s="35"/>
       <c r="S40" s="35"/>
       <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
+      <c r="U40" s="34" t="s">
+        <v>236</v>
+      </c>
       <c r="V40" s="35"/>
       <c r="W40" s="35"/>
       <c r="X40" s="35"/>
@@ -3861,7 +3881,9 @@
       <c r="AC40" s="35"/>
       <c r="AD40" s="35"/>
       <c r="AE40" s="35"/>
-      <c r="AF40" s="35"/>
+      <c r="AF40" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="AG40" s="35"/>
       <c r="AH40" s="35"/>
       <c r="AI40" s="35"/>
@@ -3869,13 +3891,13 @@
     </row>
     <row r="41" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>229</v>
+        <v>120</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
@@ -3883,11 +3905,9 @@
       <c r="G41" s="35"/>
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
-      <c r="J41" s="35" t="s">
-        <v>57</v>
-      </c>
+      <c r="J41" s="35"/>
       <c r="K41" s="35" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="L41" s="35"/>
       <c r="M41" s="35"/>
@@ -3909,21 +3929,23 @@
       <c r="AC41" s="35"/>
       <c r="AD41" s="35"/>
       <c r="AE41" s="35"/>
-      <c r="AF41" s="35"/>
+      <c r="AF41" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="AG41" s="35"/>
       <c r="AH41" s="35"/>
       <c r="AI41" s="35"/>
       <c r="AJ41" s="35"/>
     </row>
-    <row r="42" spans="1:36" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
@@ -3932,7 +3954,9 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
+      <c r="K42" s="35" t="s">
+        <v>235</v>
+      </c>
       <c r="L42" s="35"/>
       <c r="M42" s="35"/>
       <c r="N42" s="35"/>
@@ -3942,9 +3966,7 @@
       <c r="R42" s="35"/>
       <c r="S42" s="35"/>
       <c r="T42" s="35"/>
-      <c r="U42" s="34" t="s">
-        <v>236</v>
-      </c>
+      <c r="U42" s="35"/>
       <c r="V42" s="35"/>
       <c r="W42" s="35"/>
       <c r="X42" s="35"/>
@@ -3965,14 +3987,10 @@
     </row>
     <row r="43" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>230</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B43" s="37"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
       <c r="F43" s="35"/>
@@ -3980,9 +3998,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
       <c r="J43" s="35"/>
-      <c r="K43" s="35" t="s">
-        <v>234</v>
-      </c>
+      <c r="K43" s="35"/>
       <c r="L43" s="35"/>
       <c r="M43" s="35"/>
       <c r="N43" s="35"/>
@@ -4003,123 +4019,131 @@
       <c r="AC43" s="35"/>
       <c r="AD43" s="35"/>
       <c r="AE43" s="35"/>
-      <c r="AF43" s="35" t="s">
-        <v>50</v>
-      </c>
+      <c r="AF43" s="35"/>
       <c r="AG43" s="35"/>
       <c r="AH43" s="35"/>
       <c r="AI43" s="35"/>
       <c r="AJ43" s="35"/>
     </row>
     <row r="44" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="35"/>
-      <c r="Y44" s="35"/>
-      <c r="Z44" s="35"/>
-      <c r="AA44" s="35"/>
-      <c r="AB44" s="35"/>
-      <c r="AC44" s="35"/>
-      <c r="AD44" s="35"/>
-      <c r="AE44" s="35"/>
-      <c r="AF44" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG44" s="35"/>
-      <c r="AH44" s="35"/>
-      <c r="AI44" s="35"/>
-      <c r="AJ44" s="35"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="AF44" s="31"/>
+      <c r="AG44" s="31"/>
+      <c r="AH44" s="31"/>
+      <c r="AI44" s="31"/>
+      <c r="AJ44" s="31"/>
     </row>
     <row r="45" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="35"/>
+      <c r="A45" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>394</v>
+      </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="35"/>
-      <c r="Y45" s="35"/>
-      <c r="Z45" s="35"/>
-      <c r="AA45" s="35"/>
-      <c r="AB45" s="35"/>
-      <c r="AC45" s="35"/>
-      <c r="AD45" s="35"/>
-      <c r="AE45" s="35"/>
-      <c r="AF45" s="35"/>
-      <c r="AG45" s="35"/>
-      <c r="AH45" s="35"/>
-      <c r="AI45" s="35"/>
-      <c r="AJ45" s="35"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="L45" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="36"/>
+      <c r="Z45" s="36"/>
+      <c r="AA45" s="36"/>
+      <c r="AB45" s="36"/>
+      <c r="AC45" s="36"/>
+      <c r="AD45" s="36"/>
+      <c r="AE45" s="36"/>
+      <c r="AF45" s="36"/>
+      <c r="AG45" s="36"/>
+      <c r="AH45" s="36"/>
+      <c r="AI45" s="36"/>
+      <c r="AJ45" s="36"/>
     </row>
     <row r="46" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="AF46" s="31"/>
-      <c r="AG46" s="31"/>
-      <c r="AH46" s="31"/>
-      <c r="AI46" s="31"/>
-      <c r="AJ46" s="31"/>
+      <c r="A46" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="N46" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="36"/>
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="36"/>
+      <c r="AB46" s="36"/>
+      <c r="AC46" s="36"/>
+      <c r="AD46" s="36"/>
+      <c r="AE46" s="36"/>
+      <c r="AF46" s="36"/>
+      <c r="AG46" s="36"/>
+      <c r="AH46" s="36"/>
+      <c r="AI46" s="36"/>
+      <c r="AJ46" s="36"/>
     </row>
     <row r="47" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
-        <v>42</v>
+        <v>351</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -4127,14 +4151,12 @@
       <c r="G47" s="35"/>
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36" t="s">
-        <v>388</v>
-      </c>
-      <c r="L47" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="M47" s="34"/>
+      <c r="J47" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="34"/>
       <c r="O47" s="34"/>
       <c r="P47" s="34"/>
@@ -4161,13 +4183,13 @@
     </row>
     <row r="48" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -4176,15 +4198,15 @@
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
       <c r="J48" s="36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K48" s="36"/>
       <c r="L48" s="36"/>
-      <c r="M48" s="34" t="s">
-        <v>349</v>
+      <c r="M48" s="36" t="s">
+        <v>355</v>
       </c>
       <c r="N48" s="34" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="O48" s="34"/>
       <c r="P48" s="34"/>
@@ -4211,13 +4233,13 @@
     </row>
     <row r="49" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
-        <v>351</v>
+        <v>117</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -4225,10 +4247,10 @@
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
-      <c r="J49" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="K49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36" t="s">
+        <v>389</v>
+      </c>
       <c r="L49" s="36"/>
       <c r="M49" s="36"/>
       <c r="N49" s="34"/>
@@ -4257,13 +4279,13 @@
     </row>
     <row r="50" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
-        <v>353</v>
+        <v>117</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
@@ -4271,17 +4293,13 @@
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
-      <c r="J50" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="K50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36" t="s">
+        <v>509</v>
+      </c>
       <c r="L50" s="36"/>
-      <c r="M50" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="N50" s="34" t="s">
-        <v>356</v>
-      </c>
+      <c r="M50" s="36"/>
+      <c r="N50" s="34"/>
       <c r="O50" s="34"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="34"/>
@@ -4299,44 +4317,44 @@
       <c r="AC50" s="36"/>
       <c r="AD50" s="36"/>
       <c r="AE50" s="36"/>
-      <c r="AF50" s="36"/>
+      <c r="AF50" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="AG50" s="36"/>
       <c r="AH50" s="36"/>
       <c r="AI50" s="36"/>
       <c r="AJ50" s="36"/>
     </row>
     <row r="51" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
+      <c r="A51" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="36"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
       <c r="J51" s="36"/>
-      <c r="K51" s="36" t="s">
-        <v>389</v>
-      </c>
+      <c r="K51" s="39"/>
       <c r="L51" s="36"/>
       <c r="M51" s="36"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
       <c r="V51" s="36"/>
-      <c r="W51" s="34"/>
+      <c r="W51" s="36"/>
       <c r="X51" s="36"/>
       <c r="Y51" s="36"/>
       <c r="Z51" s="36"/>
@@ -4345,88 +4363,92 @@
       <c r="AC51" s="36"/>
       <c r="AD51" s="36"/>
       <c r="AE51" s="36"/>
-      <c r="AF51" s="36"/>
+      <c r="AF51" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="AG51" s="36"/>
       <c r="AH51" s="36"/>
-      <c r="AI51" s="36"/>
+      <c r="AI51" s="40" t="s">
+        <v>362</v>
+      </c>
       <c r="AJ51" s="36"/>
     </row>
     <row r="52" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36" t="s">
-        <v>509</v>
-      </c>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="36"/>
-      <c r="W52" s="34"/>
-      <c r="X52" s="36"/>
-      <c r="Y52" s="36"/>
-      <c r="Z52" s="36"/>
-      <c r="AA52" s="36"/>
-      <c r="AB52" s="36"/>
-      <c r="AC52" s="36"/>
-      <c r="AD52" s="36"/>
-      <c r="AE52" s="36"/>
-      <c r="AF52" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG52" s="36"/>
-      <c r="AH52" s="36"/>
-      <c r="AI52" s="36"/>
-      <c r="AJ52" s="36"/>
+      <c r="A52" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="36"/>
+      <c r="U52" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="39"/>
+      <c r="Y52" s="39"/>
+      <c r="Z52" s="39"/>
+      <c r="AA52" s="39"/>
+      <c r="AB52" s="39"/>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="39"/>
+      <c r="AE52" s="39"/>
+      <c r="AF52" s="39"/>
+      <c r="AG52" s="39"/>
+      <c r="AH52" s="39"/>
+      <c r="AI52" s="39"/>
+      <c r="AJ52" s="39"/>
     </row>
     <row r="53" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>361</v>
+        <v>3</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="D53" s="36"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
       <c r="G53" s="36"/>
       <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
+      <c r="I53" s="39"/>
       <c r="J53" s="36"/>
-      <c r="K53" s="39"/>
+      <c r="K53" s="36"/>
       <c r="L53" s="36"/>
       <c r="M53" s="36"/>
       <c r="N53" s="36"/>
       <c r="O53" s="36"/>
-      <c r="P53" s="39"/>
+      <c r="P53" s="36"/>
       <c r="Q53" s="36"/>
       <c r="R53" s="36"/>
       <c r="S53" s="36"/>
       <c r="T53" s="36"/>
-      <c r="U53" s="36"/>
+      <c r="U53" s="39" t="s">
+        <v>366</v>
+      </c>
       <c r="V53" s="36"/>
       <c r="W53" s="36"/>
       <c r="X53" s="36"/>
@@ -4437,14 +4459,10 @@
       <c r="AC53" s="36"/>
       <c r="AD53" s="36"/>
       <c r="AE53" s="36"/>
-      <c r="AF53" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="AF53" s="36"/>
       <c r="AG53" s="36"/>
       <c r="AH53" s="36"/>
-      <c r="AI53" s="40" t="s">
-        <v>362</v>
-      </c>
+      <c r="AI53" s="36"/>
       <c r="AJ53" s="36"/>
     </row>
     <row r="54" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4452,7 +4470,7 @@
         <v>78</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>45</v>
@@ -4463,11 +4481,11 @@
       <c r="G54" s="36"/>
       <c r="H54" s="36"/>
       <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
       <c r="O54" s="36"/>
       <c r="P54" s="36"/>
       <c r="Q54" s="36"/>
@@ -4475,7 +4493,7 @@
       <c r="S54" s="36"/>
       <c r="T54" s="36"/>
       <c r="U54" s="39" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="V54" s="39"/>
       <c r="W54" s="39"/>
@@ -4498,10 +4516,10 @@
         <v>78</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>365</v>
+        <v>45</v>
       </c>
       <c r="D55" s="36"/>
       <c r="E55" s="36"/>
@@ -4509,42 +4527,42 @@
       <c r="G55" s="36"/>
       <c r="H55" s="36"/>
       <c r="I55" s="39"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
       <c r="U55" s="39" t="s">
-        <v>366</v>
-      </c>
-      <c r="V55" s="36"/>
-      <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="36"/>
-      <c r="Z55" s="36"/>
-      <c r="AA55" s="36"/>
-      <c r="AB55" s="36"/>
-      <c r="AC55" s="36"/>
-      <c r="AD55" s="36"/>
-      <c r="AE55" s="36"/>
-      <c r="AF55" s="36"/>
-      <c r="AG55" s="36"/>
-      <c r="AH55" s="36"/>
-      <c r="AI55" s="36"/>
-      <c r="AJ55" s="36"/>
+        <v>370</v>
+      </c>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="39"/>
+      <c r="Z55" s="39"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="39"/>
+      <c r="AF55" s="39"/>
+      <c r="AG55" s="39"/>
+      <c r="AH55" s="39"/>
+      <c r="AI55" s="39"/>
+      <c r="AJ55" s="39"/>
     </row>
     <row r="56" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C56" s="39" t="s">
         <v>45</v>
@@ -4554,7 +4572,7 @@
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
       <c r="H56" s="36"/>
-      <c r="I56" s="39"/>
+      <c r="I56" s="36"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
       <c r="L56" s="36"/>
@@ -4566,40 +4584,38 @@
       <c r="R56" s="36"/>
       <c r="S56" s="36"/>
       <c r="T56" s="36"/>
-      <c r="U56" s="39" t="s">
-        <v>368</v>
-      </c>
-      <c r="V56" s="39"/>
-      <c r="W56" s="39"/>
-      <c r="X56" s="39"/>
-      <c r="Y56" s="39"/>
-      <c r="Z56" s="39"/>
-      <c r="AA56" s="39"/>
-      <c r="AB56" s="39"/>
-      <c r="AC56" s="39"/>
-      <c r="AD56" s="39"/>
-      <c r="AE56" s="39"/>
-      <c r="AF56" s="39"/>
-      <c r="AG56" s="39"/>
-      <c r="AH56" s="39"/>
-      <c r="AI56" s="39"/>
-      <c r="AJ56" s="39"/>
+      <c r="U56" s="36"/>
+      <c r="V56" s="36"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="36"/>
+      <c r="Y56" s="36"/>
+      <c r="Z56" s="36"/>
+      <c r="AA56" s="36"/>
+      <c r="AB56" s="36"/>
+      <c r="AC56" s="36"/>
+      <c r="AD56" s="36"/>
+      <c r="AE56" s="36"/>
+      <c r="AF56" s="36"/>
+      <c r="AG56" s="36"/>
+      <c r="AH56" s="36"/>
+      <c r="AI56" s="36"/>
+      <c r="AJ56" s="36"/>
     </row>
     <row r="57" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>369</v>
+        <v>66</v>
       </c>
       <c r="C57" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
       <c r="I57" s="39"/>
       <c r="J57" s="39"/>
       <c r="K57" s="39"/>
@@ -4613,7 +4629,7 @@
       <c r="S57" s="39"/>
       <c r="T57" s="39"/>
       <c r="U57" s="39" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="V57" s="39"/>
       <c r="W57" s="39"/>
@@ -4633,146 +4649,146 @@
     </row>
     <row r="58" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>371</v>
+        <v>84</v>
       </c>
       <c r="C58" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="36"/>
-      <c r="P58" s="36"/>
-      <c r="Q58" s="36"/>
-      <c r="R58" s="36"/>
-      <c r="S58" s="36"/>
-      <c r="T58" s="36"/>
-      <c r="U58" s="36"/>
-      <c r="V58" s="36"/>
-      <c r="W58" s="36"/>
-      <c r="X58" s="36"/>
-      <c r="Y58" s="36"/>
-      <c r="Z58" s="36"/>
-      <c r="AA58" s="36"/>
-      <c r="AB58" s="36"/>
-      <c r="AC58" s="36"/>
-      <c r="AD58" s="36"/>
-      <c r="AE58" s="36"/>
-      <c r="AF58" s="36"/>
-      <c r="AG58" s="36"/>
-      <c r="AH58" s="36"/>
-      <c r="AI58" s="36"/>
-      <c r="AJ58" s="36"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="V58" s="39"/>
+      <c r="W58" s="39"/>
+      <c r="X58" s="39"/>
+      <c r="Y58" s="39"/>
+      <c r="Z58" s="39"/>
+      <c r="AA58" s="39"/>
+      <c r="AB58" s="39"/>
+      <c r="AC58" s="39"/>
+      <c r="AD58" s="39"/>
+      <c r="AE58" s="39"/>
+      <c r="AF58" s="39"/>
+      <c r="AG58" s="39"/>
+      <c r="AH58" s="39"/>
+      <c r="AI58" s="39"/>
+      <c r="AJ58" s="39"/>
     </row>
     <row r="59" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>66</v>
+        <v>374</v>
       </c>
       <c r="C59" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39" t="s">
-        <v>372</v>
-      </c>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
-      <c r="Z59" s="39"/>
-      <c r="AA59" s="39"/>
-      <c r="AB59" s="39"/>
-      <c r="AC59" s="39"/>
-      <c r="AD59" s="39"/>
-      <c r="AE59" s="39"/>
-      <c r="AF59" s="39"/>
-      <c r="AG59" s="39"/>
-      <c r="AH59" s="39"/>
-      <c r="AI59" s="39"/>
-      <c r="AJ59" s="39"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="36"/>
+      <c r="T59" s="36"/>
+      <c r="U59" s="36"/>
+      <c r="V59" s="36"/>
+      <c r="W59" s="36"/>
+      <c r="X59" s="36"/>
+      <c r="Y59" s="36"/>
+      <c r="Z59" s="36"/>
+      <c r="AA59" s="36"/>
+      <c r="AB59" s="36"/>
+      <c r="AC59" s="36"/>
+      <c r="AD59" s="36"/>
+      <c r="AE59" s="36"/>
+      <c r="AF59" s="36"/>
+      <c r="AG59" s="36"/>
+      <c r="AH59" s="36"/>
+      <c r="AI59" s="36"/>
+      <c r="AJ59" s="36"/>
     </row>
     <row r="60" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>84</v>
+        <v>375</v>
       </c>
       <c r="C60" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
       <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="36"/>
       <c r="U60" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="39"/>
-      <c r="AA60" s="39"/>
-      <c r="AB60" s="39"/>
-      <c r="AC60" s="39"/>
-      <c r="AD60" s="39"/>
-      <c r="AE60" s="39"/>
-      <c r="AF60" s="39"/>
-      <c r="AG60" s="39"/>
-      <c r="AH60" s="39"/>
-      <c r="AI60" s="39"/>
-      <c r="AJ60" s="39"/>
+        <v>390</v>
+      </c>
+      <c r="V60" s="36"/>
+      <c r="W60" s="36"/>
+      <c r="X60" s="36"/>
+      <c r="Y60" s="36"/>
+      <c r="Z60" s="36"/>
+      <c r="AA60" s="36"/>
+      <c r="AB60" s="36"/>
+      <c r="AC60" s="36"/>
+      <c r="AD60" s="36"/>
+      <c r="AE60" s="36"/>
+      <c r="AF60" s="36"/>
+      <c r="AG60" s="36"/>
+      <c r="AH60" s="36"/>
+      <c r="AI60" s="36"/>
+      <c r="AJ60" s="36"/>
     </row>
     <row r="61" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="38" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C61" s="39" t="s">
         <v>45</v>
@@ -4782,7 +4798,7 @@
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
       <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
+      <c r="I61" s="39"/>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
       <c r="L61" s="36"/>
@@ -4794,7 +4810,9 @@
       <c r="R61" s="36"/>
       <c r="S61" s="36"/>
       <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
+      <c r="U61" s="39" t="s">
+        <v>391</v>
+      </c>
       <c r="V61" s="36"/>
       <c r="W61" s="36"/>
       <c r="X61" s="36"/>
@@ -4816,7 +4834,7 @@
         <v>78</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C62" s="39" t="s">
         <v>45</v>
@@ -4839,7 +4857,7 @@
       <c r="S62" s="36"/>
       <c r="T62" s="36"/>
       <c r="U62" s="39" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="V62" s="36"/>
       <c r="W62" s="36"/>
@@ -4862,7 +4880,7 @@
         <v>78</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C63" s="39" t="s">
         <v>45</v>
@@ -4873,52 +4891,48 @@
       <c r="G63" s="36"/>
       <c r="H63" s="36"/>
       <c r="I63" s="39"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="36"/>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="36"/>
-      <c r="R63" s="36"/>
-      <c r="S63" s="36"/>
-      <c r="T63" s="36"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
       <c r="U63" s="39" t="s">
-        <v>391</v>
-      </c>
-      <c r="V63" s="36"/>
-      <c r="W63" s="36"/>
-      <c r="X63" s="36"/>
-      <c r="Y63" s="36"/>
-      <c r="Z63" s="36"/>
-      <c r="AA63" s="36"/>
-      <c r="AB63" s="36"/>
-      <c r="AC63" s="36"/>
-      <c r="AD63" s="36"/>
-      <c r="AE63" s="36"/>
-      <c r="AF63" s="36"/>
-      <c r="AG63" s="36"/>
-      <c r="AH63" s="36"/>
-      <c r="AI63" s="36"/>
-      <c r="AJ63" s="36"/>
+        <v>392</v>
+      </c>
+      <c r="V63" s="39"/>
+      <c r="W63" s="39"/>
+      <c r="X63" s="39"/>
+      <c r="Y63" s="39"/>
+      <c r="Z63" s="39"/>
+      <c r="AA63" s="39"/>
+      <c r="AB63" s="39"/>
+      <c r="AC63" s="39"/>
+      <c r="AD63" s="39"/>
+      <c r="AE63" s="39"/>
+      <c r="AF63" s="39"/>
+      <c r="AG63" s="39"/>
+      <c r="AH63" s="39"/>
+      <c r="AI63" s="39"/>
+      <c r="AJ63" s="39"/>
     </row>
     <row r="64" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>45</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B64" s="38"/>
+      <c r="C64" s="36"/>
       <c r="D64" s="36"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
       <c r="H64" s="36"/>
-      <c r="I64" s="39"/>
+      <c r="I64" s="36"/>
       <c r="J64" s="36"/>
       <c r="K64" s="36"/>
       <c r="L64" s="36"/>
@@ -4930,9 +4944,7 @@
       <c r="R64" s="36"/>
       <c r="S64" s="36"/>
       <c r="T64" s="36"/>
-      <c r="U64" s="39" t="s">
-        <v>378</v>
-      </c>
+      <c r="U64" s="36"/>
       <c r="V64" s="36"/>
       <c r="W64" s="36"/>
       <c r="X64" s="36"/>
@@ -4951,56 +4963,54 @@
     </row>
     <row r="65" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="C65" s="39" t="s">
-        <v>45</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B65" s="38"/>
+      <c r="C65" s="36"/>
       <c r="D65" s="36"/>
       <c r="E65" s="36"/>
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
       <c r="H65" s="36"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="39"/>
-      <c r="M65" s="39"/>
-      <c r="N65" s="39"/>
-      <c r="O65" s="39"/>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="39"/>
-      <c r="S65" s="39"/>
-      <c r="T65" s="39"/>
-      <c r="U65" s="39" t="s">
-        <v>392</v>
-      </c>
-      <c r="V65" s="39"/>
-      <c r="W65" s="39"/>
-      <c r="X65" s="39"/>
-      <c r="Y65" s="39"/>
-      <c r="Z65" s="39"/>
-      <c r="AA65" s="39"/>
-      <c r="AB65" s="39"/>
-      <c r="AC65" s="39"/>
-      <c r="AD65" s="39"/>
-      <c r="AE65" s="39"/>
-      <c r="AF65" s="39"/>
-      <c r="AG65" s="39"/>
-      <c r="AH65" s="39"/>
-      <c r="AI65" s="39"/>
-      <c r="AJ65" s="39"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="36"/>
+      <c r="U65" s="36"/>
+      <c r="V65" s="36"/>
+      <c r="W65" s="36"/>
+      <c r="X65" s="36"/>
+      <c r="Y65" s="36"/>
+      <c r="Z65" s="36"/>
+      <c r="AA65" s="36"/>
+      <c r="AB65" s="36"/>
+      <c r="AC65" s="36"/>
+      <c r="AD65" s="36"/>
+      <c r="AE65" s="36"/>
+      <c r="AF65" s="36"/>
+      <c r="AG65" s="36"/>
+      <c r="AH65" s="36"/>
+      <c r="AI65" s="36"/>
+      <c r="AJ65" s="36"/>
     </row>
     <row r="66" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="38"/>
-      <c r="C66" s="36"/>
+      <c r="A66" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>45</v>
+      </c>
       <c r="D66" s="36"/>
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
@@ -5018,7 +5028,9 @@
       <c r="R66" s="36"/>
       <c r="S66" s="36"/>
       <c r="T66" s="36"/>
-      <c r="U66" s="36"/>
+      <c r="U66" s="36" t="s">
+        <v>381</v>
+      </c>
       <c r="V66" s="36"/>
       <c r="W66" s="36"/>
       <c r="X66" s="36"/>
@@ -5033,7 +5045,9 @@
       <c r="AG66" s="36"/>
       <c r="AH66" s="36"/>
       <c r="AI66" s="36"/>
-      <c r="AJ66" s="36"/>
+      <c r="AJ66" s="36" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="67" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="38" t="s">
@@ -5080,7 +5094,7 @@
         <v>78</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="C68" s="36" t="s">
         <v>45</v>
@@ -5103,7 +5117,7 @@
       <c r="S68" s="36"/>
       <c r="T68" s="36"/>
       <c r="U68" s="36" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="V68" s="36"/>
       <c r="W68" s="36"/>
@@ -5120,35 +5134,35 @@
       <c r="AH68" s="36"/>
       <c r="AI68" s="36"/>
       <c r="AJ68" s="36" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="69" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="38"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
       <c r="L69" s="36"/>
       <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="36"/>
-      <c r="U69" s="36"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="34"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="34"/>
       <c r="V69" s="36"/>
-      <c r="W69" s="36"/>
+      <c r="W69" s="34"/>
       <c r="X69" s="36"/>
       <c r="Y69" s="36"/>
       <c r="Z69" s="36"/>
@@ -5164,59 +5178,27 @@
       <c r="AJ69" s="36"/>
     </row>
     <row r="70" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" s="41" t="s">
-        <v>393</v>
-      </c>
-      <c r="C70" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="36"/>
-      <c r="N70" s="36"/>
-      <c r="O70" s="36"/>
-      <c r="P70" s="36"/>
-      <c r="Q70" s="36"/>
-      <c r="R70" s="36"/>
-      <c r="S70" s="36"/>
-      <c r="T70" s="36"/>
-      <c r="U70" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="V70" s="36"/>
-      <c r="W70" s="36"/>
-      <c r="X70" s="36"/>
-      <c r="Y70" s="36"/>
-      <c r="Z70" s="36"/>
-      <c r="AA70" s="36"/>
-      <c r="AB70" s="36"/>
-      <c r="AC70" s="36"/>
-      <c r="AD70" s="36"/>
-      <c r="AE70" s="36"/>
-      <c r="AF70" s="36"/>
-      <c r="AG70" s="36"/>
-      <c r="AH70" s="36"/>
-      <c r="AI70" s="36"/>
-      <c r="AJ70" s="36" t="s">
-        <v>383</v>
-      </c>
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="AF70" s="31"/>
+      <c r="AG70" s="31"/>
+      <c r="AH70" s="31"/>
+      <c r="AI70" s="31"/>
+      <c r="AJ70" s="31"/>
     </row>
     <row r="71" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B71" s="33"/>
-      <c r="C71" s="34"/>
+        <v>42</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>400</v>
+      </c>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
       <c r="F71" s="35"/>
@@ -5224,8 +5206,12 @@
       <c r="H71" s="35"/>
       <c r="I71" s="35"/>
       <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="36"/>
+      <c r="K71" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="L71" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="M71" s="36"/>
       <c r="N71" s="34"/>
       <c r="O71" s="34"/>
@@ -5252,26 +5238,64 @@
       <c r="AJ71" s="36"/>
     </row>
     <row r="72" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="AF72" s="31"/>
-      <c r="AG72" s="31"/>
-      <c r="AH72" s="31"/>
-      <c r="AI72" s="31"/>
-      <c r="AJ72" s="31"/>
+      <c r="A72" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="N72" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
+      <c r="Q72" s="34"/>
+      <c r="R72" s="34"/>
+      <c r="S72" s="34"/>
+      <c r="T72" s="34"/>
+      <c r="U72" s="34"/>
+      <c r="V72" s="34"/>
+      <c r="W72" s="34"/>
+      <c r="X72" s="34"/>
+      <c r="Y72" s="34"/>
+      <c r="Z72" s="34"/>
+      <c r="AA72" s="34"/>
+      <c r="AB72" s="34"/>
+      <c r="AC72" s="34"/>
+      <c r="AD72" s="34"/>
+      <c r="AE72" s="34"/>
+      <c r="AF72" s="34"/>
+      <c r="AG72" s="34"/>
+      <c r="AH72" s="34"/>
+      <c r="AI72" s="34"/>
+      <c r="AJ72" s="34"/>
     </row>
     <row r="73" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="33" t="s">
-        <v>42</v>
+        <v>399</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>250</v>
+        <v>404</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -5279,14 +5303,12 @@
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
       <c r="I73" s="35"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="L73" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="M73" s="36"/>
+      <c r="J73" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="34"/>
       <c r="N73" s="34"/>
       <c r="O73" s="34"/>
       <c r="P73" s="34"/>
@@ -5295,31 +5317,31 @@
       <c r="S73" s="34"/>
       <c r="T73" s="34"/>
       <c r="U73" s="34"/>
-      <c r="V73" s="36"/>
+      <c r="V73" s="34"/>
       <c r="W73" s="34"/>
-      <c r="X73" s="36"/>
-      <c r="Y73" s="36"/>
-      <c r="Z73" s="36"/>
-      <c r="AA73" s="36"/>
-      <c r="AB73" s="36"/>
-      <c r="AC73" s="36"/>
-      <c r="AD73" s="36"/>
-      <c r="AE73" s="36"/>
-      <c r="AF73" s="36"/>
-      <c r="AG73" s="36"/>
-      <c r="AH73" s="36"/>
-      <c r="AI73" s="36"/>
-      <c r="AJ73" s="36"/>
+      <c r="X73" s="34"/>
+      <c r="Y73" s="34"/>
+      <c r="Z73" s="34"/>
+      <c r="AA73" s="34"/>
+      <c r="AB73" s="34"/>
+      <c r="AC73" s="34"/>
+      <c r="AD73" s="34"/>
+      <c r="AE73" s="34"/>
+      <c r="AF73" s="34"/>
+      <c r="AG73" s="34"/>
+      <c r="AH73" s="34"/>
+      <c r="AI73" s="34"/>
+      <c r="AJ73" s="34"/>
     </row>
     <row r="74" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -5330,13 +5352,15 @@
       <c r="J74" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="K74" s="34"/>
+      <c r="K74" s="34" t="s">
+        <v>407</v>
+      </c>
       <c r="L74" s="34"/>
       <c r="M74" s="34" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="N74" s="34" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="O74" s="34"/>
       <c r="P74" s="34"/>
@@ -5363,26 +5387,20 @@
     </row>
     <row r="75" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="B75" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>405</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B75" s="33"/>
+      <c r="C75" s="34"/>
       <c r="D75" s="35"/>
       <c r="E75" s="35"/>
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
       <c r="I75" s="35"/>
-      <c r="J75" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34"/>
-      <c r="M75" s="34"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
       <c r="N75" s="34"/>
       <c r="O75" s="34"/>
       <c r="P75" s="34"/>
@@ -5391,80 +5409,44 @@
       <c r="S75" s="34"/>
       <c r="T75" s="34"/>
       <c r="U75" s="34"/>
-      <c r="V75" s="34"/>
+      <c r="V75" s="36"/>
       <c r="W75" s="34"/>
-      <c r="X75" s="34"/>
-      <c r="Y75" s="34"/>
-      <c r="Z75" s="34"/>
-      <c r="AA75" s="34"/>
-      <c r="AB75" s="34"/>
-      <c r="AC75" s="34"/>
-      <c r="AD75" s="34"/>
-      <c r="AE75" s="34"/>
-      <c r="AF75" s="34"/>
-      <c r="AG75" s="34"/>
-      <c r="AH75" s="34"/>
-      <c r="AI75" s="34"/>
-      <c r="AJ75" s="34"/>
+      <c r="X75" s="36"/>
+      <c r="Y75" s="36"/>
+      <c r="Z75" s="36"/>
+      <c r="AA75" s="36"/>
+      <c r="AB75" s="36"/>
+      <c r="AC75" s="36"/>
+      <c r="AD75" s="36"/>
+      <c r="AE75" s="36"/>
+      <c r="AF75" s="36"/>
+      <c r="AG75" s="36"/>
+      <c r="AH75" s="36"/>
+      <c r="AI75" s="36"/>
+      <c r="AJ75" s="36"/>
     </row>
     <row r="76" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="B76" s="33" t="s">
-        <v>406</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="K76" s="34" t="s">
-        <v>407</v>
-      </c>
-      <c r="L76" s="34"/>
-      <c r="M76" s="34" t="s">
-        <v>397</v>
-      </c>
-      <c r="N76" s="34" t="s">
-        <v>398</v>
-      </c>
-      <c r="O76" s="34"/>
-      <c r="P76" s="34"/>
-      <c r="Q76" s="34"/>
-      <c r="R76" s="34"/>
-      <c r="S76" s="34"/>
-      <c r="T76" s="34"/>
-      <c r="U76" s="34"/>
-      <c r="V76" s="34"/>
-      <c r="W76" s="34"/>
-      <c r="X76" s="34"/>
-      <c r="Y76" s="34"/>
-      <c r="Z76" s="34"/>
-      <c r="AA76" s="34"/>
-      <c r="AB76" s="34"/>
-      <c r="AC76" s="34"/>
-      <c r="AD76" s="34"/>
-      <c r="AE76" s="34"/>
-      <c r="AF76" s="34"/>
-      <c r="AG76" s="34"/>
-      <c r="AH76" s="34"/>
-      <c r="AI76" s="34"/>
-      <c r="AJ76" s="34"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="AF76" s="31"/>
+      <c r="AG76" s="31"/>
+      <c r="AH76" s="31"/>
+      <c r="AI76" s="31"/>
+      <c r="AJ76" s="31"/>
     </row>
     <row r="77" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="34"/>
+        <v>42</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>461</v>
+      </c>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
       <c r="F77" s="35"/>
@@ -5472,8 +5454,12 @@
       <c r="H77" s="35"/>
       <c r="I77" s="35"/>
       <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="36"/>
+      <c r="K77" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="L77" s="36" t="s">
+        <v>408</v>
+      </c>
       <c r="M77" s="36"/>
       <c r="N77" s="34"/>
       <c r="O77" s="34"/>
@@ -5493,33 +5479,67 @@
       <c r="AC77" s="36"/>
       <c r="AD77" s="36"/>
       <c r="AE77" s="36"/>
-      <c r="AF77" s="36"/>
+      <c r="AF77" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="AG77" s="36"/>
       <c r="AH77" s="36"/>
       <c r="AI77" s="36"/>
       <c r="AJ77" s="36"/>
     </row>
     <row r="78" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="AF78" s="31"/>
-      <c r="AG78" s="31"/>
-      <c r="AH78" s="31"/>
-      <c r="AI78" s="31"/>
-      <c r="AJ78" s="31"/>
+      <c r="A78" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="34"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="34"/>
+      <c r="S78" s="34"/>
+      <c r="T78" s="34"/>
+      <c r="U78" s="34"/>
+      <c r="V78" s="36"/>
+      <c r="W78" s="34"/>
+      <c r="X78" s="36"/>
+      <c r="Y78" s="36"/>
+      <c r="Z78" s="36"/>
+      <c r="AA78" s="36"/>
+      <c r="AB78" s="36"/>
+      <c r="AC78" s="36"/>
+      <c r="AD78" s="36"/>
+      <c r="AE78" s="36"/>
+      <c r="AF78" s="36"/>
+      <c r="AG78" s="36"/>
+      <c r="AH78" s="36"/>
+      <c r="AI78" s="36"/>
+      <c r="AJ78" s="36"/>
     </row>
     <row r="79" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="33" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C79" s="34" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="35"/>
@@ -5528,12 +5548,8 @@
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
       <c r="J79" s="36"/>
-      <c r="K79" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="L79" s="36" t="s">
-        <v>408</v>
-      </c>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
       <c r="M79" s="36"/>
       <c r="N79" s="34"/>
       <c r="O79" s="34"/>
@@ -5553,9 +5569,7 @@
       <c r="AC79" s="36"/>
       <c r="AD79" s="36"/>
       <c r="AE79" s="36"/>
-      <c r="AF79" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="AF79" s="36"/>
       <c r="AG79" s="36"/>
       <c r="AH79" s="36"/>
       <c r="AI79" s="36"/>
@@ -5566,10 +5580,10 @@
         <v>117</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="35"/>
@@ -5610,10 +5624,10 @@
         <v>117</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="35"/>
@@ -5654,10 +5668,10 @@
         <v>117</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D82" s="35"/>
       <c r="E82" s="35"/>
@@ -5695,31 +5709,27 @@
     </row>
     <row r="83" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B83" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="C83" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
+        <v>68</v>
+      </c>
+      <c r="B83" s="33"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
       <c r="J83" s="36"/>
       <c r="K83" s="36"/>
       <c r="L83" s="36"/>
       <c r="M83" s="36"/>
       <c r="N83" s="34"/>
-      <c r="O83" s="34"/>
-      <c r="P83" s="34"/>
-      <c r="Q83" s="34"/>
-      <c r="R83" s="34"/>
-      <c r="S83" s="34"/>
-      <c r="T83" s="34"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="36"/>
+      <c r="Q83" s="36"/>
+      <c r="R83" s="36"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="36"/>
       <c r="U83" s="34"/>
       <c r="V83" s="36"/>
       <c r="W83" s="34"/>
@@ -5738,72 +5748,74 @@
       <c r="AJ83" s="36"/>
     </row>
     <row r="84" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B84" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="C84" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="36"/>
-      <c r="N84" s="34"/>
-      <c r="O84" s="34"/>
-      <c r="P84" s="34"/>
-      <c r="Q84" s="34"/>
-      <c r="R84" s="34"/>
-      <c r="S84" s="34"/>
-      <c r="T84" s="34"/>
-      <c r="U84" s="34"/>
-      <c r="V84" s="36"/>
-      <c r="W84" s="34"/>
-      <c r="X84" s="36"/>
-      <c r="Y84" s="36"/>
-      <c r="Z84" s="36"/>
-      <c r="AA84" s="36"/>
-      <c r="AB84" s="36"/>
-      <c r="AC84" s="36"/>
-      <c r="AD84" s="36"/>
-      <c r="AE84" s="36"/>
-      <c r="AF84" s="36"/>
-      <c r="AG84" s="36"/>
-      <c r="AH84" s="36"/>
-      <c r="AI84" s="36"/>
-      <c r="AJ84" s="36"/>
+      <c r="A84" s="42"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="43"/>
+      <c r="N84" s="42"/>
+      <c r="O84" s="42"/>
+      <c r="P84" s="42"/>
+      <c r="Q84" s="42"/>
+      <c r="R84" s="42"/>
+      <c r="S84" s="42"/>
+      <c r="T84" s="42"/>
+      <c r="U84" s="42"/>
+      <c r="V84" s="43"/>
+      <c r="W84" s="42"/>
+      <c r="X84" s="43"/>
+      <c r="Y84" s="43"/>
+      <c r="Z84" s="43"/>
+      <c r="AA84" s="43"/>
+      <c r="AB84" s="43"/>
+      <c r="AC84" s="43"/>
+      <c r="AD84" s="43"/>
+      <c r="AE84" s="43"/>
+      <c r="AF84" s="43"/>
+      <c r="AG84" s="43"/>
+      <c r="AH84" s="43"/>
+      <c r="AI84" s="43"/>
+      <c r="AJ84" s="43"/>
     </row>
     <row r="85" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B85" s="33"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
+        <v>42</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
       <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="36"/>
+      <c r="K85" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="L85" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="M85" s="36"/>
       <c r="N85" s="34"/>
-      <c r="O85" s="36"/>
-      <c r="P85" s="36"/>
-      <c r="Q85" s="36"/>
-      <c r="R85" s="36"/>
-      <c r="S85" s="36"/>
-      <c r="T85" s="36"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="34"/>
+      <c r="Q85" s="34"/>
+      <c r="R85" s="34"/>
+      <c r="S85" s="34"/>
+      <c r="T85" s="34"/>
       <c r="U85" s="34"/>
       <c r="V85" s="36"/>
       <c r="W85" s="34"/>
@@ -5822,52 +5834,60 @@
       <c r="AJ85" s="36"/>
     </row>
     <row r="86" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="43"/>
-      <c r="K86" s="43"/>
-      <c r="L86" s="43"/>
-      <c r="M86" s="43"/>
-      <c r="N86" s="42"/>
-      <c r="O86" s="42"/>
-      <c r="P86" s="42"/>
-      <c r="Q86" s="42"/>
-      <c r="R86" s="42"/>
-      <c r="S86" s="42"/>
-      <c r="T86" s="42"/>
-      <c r="U86" s="42"/>
-      <c r="V86" s="43"/>
-      <c r="W86" s="42"/>
-      <c r="X86" s="43"/>
-      <c r="Y86" s="43"/>
-      <c r="Z86" s="43"/>
-      <c r="AA86" s="43"/>
-      <c r="AB86" s="43"/>
-      <c r="AC86" s="43"/>
-      <c r="AD86" s="43"/>
-      <c r="AE86" s="43"/>
-      <c r="AF86" s="43"/>
-      <c r="AG86" s="43"/>
-      <c r="AH86" s="43"/>
-      <c r="AI86" s="43"/>
-      <c r="AJ86" s="43"/>
+      <c r="A86" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="34"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="34"/>
+      <c r="Q86" s="34"/>
+      <c r="R86" s="34"/>
+      <c r="S86" s="34"/>
+      <c r="T86" s="34"/>
+      <c r="U86" s="34"/>
+      <c r="V86" s="36"/>
+      <c r="W86" s="34"/>
+      <c r="X86" s="36"/>
+      <c r="Y86" s="36"/>
+      <c r="Z86" s="36"/>
+      <c r="AA86" s="36"/>
+      <c r="AB86" s="36"/>
+      <c r="AC86" s="36"/>
+      <c r="AD86" s="36"/>
+      <c r="AE86" s="36"/>
+      <c r="AF86" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG86" s="36"/>
+      <c r="AH86" s="36"/>
+      <c r="AI86" s="36"/>
+      <c r="AJ86" s="36"/>
     </row>
     <row r="87" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
-        <v>42</v>
+        <v>411</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>473</v>
+        <v>412</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>474</v>
+        <v>413</v>
       </c>
       <c r="D87" s="35"/>
       <c r="E87" s="35"/>
@@ -5875,15 +5895,15 @@
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
       <c r="I87" s="35"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="L87" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="M87" s="36"/>
-      <c r="N87" s="34"/>
+      <c r="J87" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="N87" s="35"/>
       <c r="O87" s="34"/>
       <c r="P87" s="34"/>
       <c r="Q87" s="34"/>
@@ -5891,7 +5911,9 @@
       <c r="S87" s="34"/>
       <c r="T87" s="34"/>
       <c r="U87" s="34"/>
-      <c r="V87" s="36"/>
+      <c r="V87" s="34" t="s">
+        <v>415</v>
+      </c>
       <c r="W87" s="34"/>
       <c r="X87" s="36"/>
       <c r="Y87" s="36"/>
@@ -5909,34 +5931,40 @@
     </row>
     <row r="88" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="33" t="s">
-        <v>117</v>
+        <v>395</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="36"/>
+        <v>417</v>
+      </c>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="K88" s="36"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="36"/>
-      <c r="N88" s="34"/>
-      <c r="O88" s="34"/>
-      <c r="P88" s="34"/>
-      <c r="Q88" s="34"/>
-      <c r="R88" s="34"/>
-      <c r="S88" s="34"/>
-      <c r="T88" s="34"/>
-      <c r="U88" s="34"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="N88" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="36"/>
+      <c r="S88" s="36"/>
+      <c r="T88" s="36"/>
+      <c r="U88" s="36"/>
       <c r="V88" s="36"/>
-      <c r="W88" s="34"/>
+      <c r="W88" s="36"/>
       <c r="X88" s="36"/>
       <c r="Y88" s="36"/>
       <c r="Z88" s="36"/>
@@ -5945,9 +5973,7 @@
       <c r="AC88" s="36"/>
       <c r="AD88" s="36"/>
       <c r="AE88" s="36"/>
-      <c r="AF88" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="AF88" s="36"/>
       <c r="AG88" s="36"/>
       <c r="AH88" s="36"/>
       <c r="AI88" s="36"/>
@@ -5955,40 +5981,36 @@
     </row>
     <row r="89" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
-        <v>411</v>
+        <v>78</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>413</v>
-      </c>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="K89" s="36"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="36" t="s">
-        <v>414</v>
-      </c>
-      <c r="N89" s="35"/>
-      <c r="O89" s="34"/>
-      <c r="P89" s="34"/>
-      <c r="Q89" s="34"/>
-      <c r="R89" s="34"/>
-      <c r="S89" s="34"/>
-      <c r="T89" s="34"/>
-      <c r="U89" s="34"/>
-      <c r="V89" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="W89" s="34"/>
+        <v>45</v>
+      </c>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="34"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="36"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="36"/>
+      <c r="U89" s="36" t="s">
+        <v>522</v>
+      </c>
+      <c r="V89" s="36"/>
+      <c r="W89" s="36"/>
       <c r="X89" s="36"/>
       <c r="Y89" s="36"/>
       <c r="Z89" s="36"/>
@@ -5997,7 +6019,9 @@
       <c r="AC89" s="36"/>
       <c r="AD89" s="36"/>
       <c r="AE89" s="36"/>
-      <c r="AF89" s="36"/>
+      <c r="AF89" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="AG89" s="36"/>
       <c r="AH89" s="36"/>
       <c r="AI89" s="36"/>
@@ -6005,40 +6029,30 @@
     </row>
     <row r="90" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="33" t="s">
-        <v>395</v>
-      </c>
-      <c r="B90" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="C90" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36" t="s">
-        <v>60</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B90" s="33"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="36"/>
       <c r="K90" s="36"/>
-      <c r="L90" s="34"/>
-      <c r="M90" s="36" t="s">
-        <v>418</v>
-      </c>
-      <c r="N90" s="34" t="s">
-        <v>419</v>
-      </c>
-      <c r="O90" s="36"/>
-      <c r="P90" s="36"/>
-      <c r="Q90" s="36"/>
-      <c r="R90" s="36"/>
-      <c r="S90" s="36"/>
-      <c r="T90" s="36"/>
-      <c r="U90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="34"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
+      <c r="Q90" s="34"/>
+      <c r="R90" s="34"/>
+      <c r="S90" s="34"/>
+      <c r="T90" s="34"/>
+      <c r="U90" s="34"/>
       <c r="V90" s="36"/>
-      <c r="W90" s="36"/>
+      <c r="W90" s="34"/>
       <c r="X90" s="36"/>
       <c r="Y90" s="36"/>
       <c r="Z90" s="36"/>
@@ -6054,163 +6068,167 @@
       <c r="AJ90" s="36"/>
     </row>
     <row r="91" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B91" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="C91" s="34" t="s">
+      <c r="A91" s="42"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="43"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="43"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="42"/>
+      <c r="O91" s="42"/>
+      <c r="P91" s="42"/>
+      <c r="Q91" s="42"/>
+      <c r="R91" s="42"/>
+      <c r="S91" s="42"/>
+      <c r="T91" s="42"/>
+      <c r="U91" s="42"/>
+      <c r="V91" s="43"/>
+      <c r="W91" s="42"/>
+      <c r="X91" s="43"/>
+      <c r="Y91" s="43"/>
+      <c r="Z91" s="43"/>
+      <c r="AA91" s="43"/>
+      <c r="AB91" s="43"/>
+      <c r="AC91" s="43"/>
+      <c r="AD91" s="43"/>
+      <c r="AE91" s="43"/>
+      <c r="AF91" s="43"/>
+      <c r="AG91" s="43"/>
+      <c r="AH91" s="43"/>
+      <c r="AI91" s="43"/>
+      <c r="AJ91" s="43"/>
+    </row>
+    <row r="92" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B92" s="44" t="s">
+        <v>421</v>
+      </c>
+      <c r="C92" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="34"/>
-      <c r="M91" s="36"/>
-      <c r="N91" s="36"/>
-      <c r="O91" s="36"/>
-      <c r="P91" s="36"/>
-      <c r="Q91" s="36"/>
-      <c r="R91" s="36"/>
-      <c r="S91" s="36"/>
-      <c r="T91" s="36"/>
-      <c r="U91" s="36" t="s">
-        <v>522</v>
-      </c>
-      <c r="V91" s="36"/>
-      <c r="W91" s="36"/>
-      <c r="X91" s="36"/>
-      <c r="Y91" s="36"/>
-      <c r="Z91" s="36"/>
-      <c r="AA91" s="36"/>
-      <c r="AB91" s="36"/>
-      <c r="AC91" s="36"/>
-      <c r="AD91" s="36"/>
-      <c r="AE91" s="36"/>
-      <c r="AF91" s="36" t="s">
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="M92" s="47"/>
+      <c r="N92" s="45"/>
+      <c r="O92" s="45"/>
+      <c r="P92" s="45"/>
+      <c r="Q92" s="45"/>
+      <c r="R92" s="45"/>
+      <c r="S92" s="45"/>
+      <c r="T92" s="45"/>
+      <c r="U92" s="45"/>
+      <c r="V92" s="47"/>
+      <c r="W92" s="45"/>
+      <c r="X92" s="47"/>
+      <c r="Y92" s="47"/>
+      <c r="Z92" s="47"/>
+      <c r="AA92" s="47"/>
+      <c r="AB92" s="47"/>
+      <c r="AC92" s="47"/>
+      <c r="AD92" s="47"/>
+      <c r="AE92" s="47"/>
+      <c r="AF92" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="AG91" s="36"/>
-      <c r="AH91" s="36"/>
-      <c r="AI91" s="36"/>
-      <c r="AJ91" s="36"/>
-    </row>
-    <row r="92" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B92" s="33"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="36"/>
-      <c r="N92" s="34"/>
-      <c r="O92" s="34"/>
-      <c r="P92" s="34"/>
-      <c r="Q92" s="34"/>
-      <c r="R92" s="34"/>
-      <c r="S92" s="34"/>
-      <c r="T92" s="34"/>
-      <c r="U92" s="34"/>
-      <c r="V92" s="36"/>
-      <c r="W92" s="34"/>
-      <c r="X92" s="36"/>
-      <c r="Y92" s="36"/>
-      <c r="Z92" s="36"/>
-      <c r="AA92" s="36"/>
-      <c r="AB92" s="36"/>
-      <c r="AC92" s="36"/>
-      <c r="AD92" s="36"/>
-      <c r="AE92" s="36"/>
-      <c r="AF92" s="36"/>
-      <c r="AG92" s="36"/>
-      <c r="AH92" s="36"/>
-      <c r="AI92" s="36"/>
-      <c r="AJ92" s="36"/>
+      <c r="AG92" s="47"/>
+      <c r="AH92" s="47"/>
+      <c r="AI92" s="47"/>
+      <c r="AJ92" s="47"/>
     </row>
     <row r="93" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="31"/>
-      <c r="J93" s="43"/>
-      <c r="K93" s="43"/>
-      <c r="L93" s="43"/>
-      <c r="M93" s="43"/>
-      <c r="N93" s="42"/>
-      <c r="O93" s="42"/>
-      <c r="P93" s="42"/>
-      <c r="Q93" s="42"/>
-      <c r="R93" s="42"/>
-      <c r="S93" s="42"/>
-      <c r="T93" s="42"/>
-      <c r="U93" s="42"/>
-      <c r="V93" s="43"/>
-      <c r="W93" s="42"/>
-      <c r="X93" s="43"/>
-      <c r="Y93" s="43"/>
-      <c r="Z93" s="43"/>
-      <c r="AA93" s="43"/>
-      <c r="AB93" s="43"/>
-      <c r="AC93" s="43"/>
-      <c r="AD93" s="43"/>
-      <c r="AE93" s="43"/>
-      <c r="AF93" s="43"/>
-      <c r="AG93" s="43"/>
-      <c r="AH93" s="43"/>
-      <c r="AI93" s="43"/>
-      <c r="AJ93" s="43"/>
+      <c r="A93" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="C93" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
+      <c r="I93" s="47"/>
+      <c r="J93" s="47"/>
+      <c r="K93" s="47"/>
+      <c r="L93" s="47"/>
+      <c r="M93" s="47"/>
+      <c r="N93" s="47"/>
+      <c r="O93" s="47"/>
+      <c r="P93" s="47"/>
+      <c r="Q93" s="47"/>
+      <c r="R93" s="47"/>
+      <c r="S93" s="47"/>
+      <c r="T93" s="47"/>
+      <c r="U93" s="47"/>
+      <c r="V93" s="47"/>
+      <c r="W93" s="47"/>
+      <c r="X93" s="47"/>
+      <c r="Y93" s="47"/>
+      <c r="Z93" s="47"/>
+      <c r="AA93" s="47"/>
+      <c r="AB93" s="47"/>
+      <c r="AC93" s="47"/>
+      <c r="AD93" s="47"/>
+      <c r="AE93" s="47"/>
+      <c r="AF93" s="47"/>
+      <c r="AG93" s="47"/>
+      <c r="AH93" s="47"/>
+      <c r="AI93" s="47"/>
+      <c r="AJ93" s="47"/>
     </row>
     <row r="94" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="44" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B94" s="44" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D94" s="46"/>
-      <c r="E94" s="46"/>
-      <c r="F94" s="46"/>
-      <c r="G94" s="46"/>
-      <c r="H94" s="46"/>
-      <c r="I94" s="46"/>
+        <v>425</v>
+      </c>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
       <c r="J94" s="47"/>
       <c r="K94" s="47"/>
-      <c r="L94" s="47" t="s">
-        <v>408</v>
+      <c r="L94" s="45" t="s">
+        <v>426</v>
       </c>
       <c r="M94" s="47"/>
-      <c r="N94" s="45"/>
-      <c r="O94" s="45"/>
-      <c r="P94" s="45"/>
-      <c r="Q94" s="45"/>
-      <c r="R94" s="45"/>
-      <c r="S94" s="45"/>
-      <c r="T94" s="45"/>
-      <c r="U94" s="45"/>
+      <c r="N94" s="47"/>
+      <c r="O94" s="47"/>
+      <c r="P94" s="47"/>
+      <c r="Q94" s="47"/>
+      <c r="R94" s="47"/>
+      <c r="S94" s="47"/>
+      <c r="T94" s="47"/>
+      <c r="U94" s="47"/>
       <c r="V94" s="47"/>
-      <c r="W94" s="45"/>
+      <c r="W94" s="47"/>
       <c r="X94" s="47"/>
       <c r="Y94" s="47"/>
       <c r="Z94" s="47"/>
@@ -6219,23 +6237,21 @@
       <c r="AC94" s="47"/>
       <c r="AD94" s="47"/>
       <c r="AE94" s="47"/>
-      <c r="AF94" s="47" t="s">
-        <v>50</v>
-      </c>
+      <c r="AF94" s="47"/>
       <c r="AG94" s="47"/>
       <c r="AH94" s="47"/>
       <c r="AI94" s="47"/>
       <c r="AJ94" s="47"/>
     </row>
     <row r="95" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="48" t="s">
+      <c r="A95" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B95" s="48" t="s">
-        <v>422</v>
+      <c r="B95" s="44" t="s">
+        <v>427</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D95" s="47"/>
       <c r="E95" s="47"/>
@@ -6245,7 +6261,7 @@
       <c r="I95" s="47"/>
       <c r="J95" s="47"/>
       <c r="K95" s="47"/>
-      <c r="L95" s="47"/>
+      <c r="L95" s="45"/>
       <c r="M95" s="47"/>
       <c r="N95" s="47"/>
       <c r="O95" s="47"/>
@@ -6276,10 +6292,10 @@
         <v>117</v>
       </c>
       <c r="B96" s="44" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="C96" s="45" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="D96" s="47"/>
       <c r="E96" s="47"/>
@@ -6322,10 +6338,10 @@
         <v>117</v>
       </c>
       <c r="B97" s="44" t="s">
-        <v>427</v>
-      </c>
-      <c r="C97" s="45" t="s">
-        <v>428</v>
+        <v>429</v>
+      </c>
+      <c r="C97" s="47" t="s">
+        <v>476</v>
       </c>
       <c r="D97" s="47"/>
       <c r="E97" s="47"/>
@@ -6334,8 +6350,10 @@
       <c r="H97" s="47"/>
       <c r="I97" s="47"/>
       <c r="J97" s="47"/>
-      <c r="K97" s="47"/>
-      <c r="L97" s="45"/>
+      <c r="K97" s="46"/>
+      <c r="L97" s="45" t="s">
+        <v>430</v>
+      </c>
       <c r="M97" s="47"/>
       <c r="N97" s="47"/>
       <c r="O97" s="47"/>
@@ -6366,33 +6384,35 @@
         <v>117</v>
       </c>
       <c r="B98" s="44" t="s">
-        <v>479</v>
+        <v>431</v>
       </c>
       <c r="C98" s="45" t="s">
-        <v>475</v>
-      </c>
-      <c r="D98" s="47"/>
-      <c r="E98" s="47"/>
-      <c r="F98" s="47"/>
-      <c r="G98" s="47"/>
-      <c r="H98" s="47"/>
-      <c r="I98" s="47"/>
+        <v>258</v>
+      </c>
+      <c r="D98" s="46"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="46"/>
       <c r="J98" s="47"/>
-      <c r="K98" s="47"/>
-      <c r="L98" s="45" t="s">
-        <v>426</v>
+      <c r="K98" s="45" t="s">
+        <v>480</v>
+      </c>
+      <c r="L98" s="47" t="s">
+        <v>432</v>
       </c>
       <c r="M98" s="47"/>
-      <c r="N98" s="47"/>
-      <c r="O98" s="47"/>
-      <c r="P98" s="47"/>
-      <c r="Q98" s="47"/>
-      <c r="R98" s="47"/>
-      <c r="S98" s="47"/>
-      <c r="T98" s="47"/>
-      <c r="U98" s="47"/>
+      <c r="N98" s="45"/>
+      <c r="O98" s="45"/>
+      <c r="P98" s="45"/>
+      <c r="Q98" s="45"/>
+      <c r="R98" s="45"/>
+      <c r="S98" s="45"/>
+      <c r="T98" s="45"/>
+      <c r="U98" s="45"/>
       <c r="V98" s="47"/>
-      <c r="W98" s="47"/>
+      <c r="W98" s="45"/>
       <c r="X98" s="47"/>
       <c r="Y98" s="47"/>
       <c r="Z98" s="47"/>
@@ -6412,33 +6432,35 @@
         <v>117</v>
       </c>
       <c r="B99" s="44" t="s">
-        <v>429</v>
-      </c>
-      <c r="C99" s="47" t="s">
-        <v>476</v>
-      </c>
-      <c r="D99" s="47"/>
-      <c r="E99" s="47"/>
-      <c r="F99" s="47"/>
-      <c r="G99" s="47"/>
-      <c r="H99" s="47"/>
-      <c r="I99" s="47"/>
+        <v>433</v>
+      </c>
+      <c r="C99" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="D99" s="46"/>
+      <c r="E99" s="46"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="46"/>
       <c r="J99" s="47"/>
-      <c r="K99" s="46"/>
-      <c r="L99" s="45" t="s">
-        <v>430</v>
+      <c r="K99" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="L99" s="47" t="s">
+        <v>432</v>
       </c>
       <c r="M99" s="47"/>
-      <c r="N99" s="47"/>
-      <c r="O99" s="47"/>
-      <c r="P99" s="47"/>
-      <c r="Q99" s="47"/>
-      <c r="R99" s="47"/>
-      <c r="S99" s="47"/>
-      <c r="T99" s="47"/>
-      <c r="U99" s="47"/>
+      <c r="N99" s="45"/>
+      <c r="O99" s="45"/>
+      <c r="P99" s="45"/>
+      <c r="Q99" s="45"/>
+      <c r="R99" s="45"/>
+      <c r="S99" s="45"/>
+      <c r="T99" s="45"/>
+      <c r="U99" s="45"/>
       <c r="V99" s="47"/>
-      <c r="W99" s="47"/>
+      <c r="W99" s="45"/>
       <c r="X99" s="47"/>
       <c r="Y99" s="47"/>
       <c r="Z99" s="47"/>
@@ -6458,10 +6480,10 @@
         <v>117</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D100" s="46"/>
       <c r="E100" s="46"/>
@@ -6471,7 +6493,7 @@
       <c r="I100" s="46"/>
       <c r="J100" s="47"/>
       <c r="K100" s="45" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L100" s="47" t="s">
         <v>432</v>
@@ -6506,35 +6528,35 @@
         <v>117</v>
       </c>
       <c r="B101" s="44" t="s">
-        <v>433</v>
-      </c>
-      <c r="C101" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="D101" s="46"/>
-      <c r="E101" s="46"/>
-      <c r="F101" s="46"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="46"/>
+        <v>478</v>
+      </c>
+      <c r="C101" s="47" t="s">
+        <v>435</v>
+      </c>
+      <c r="D101" s="47"/>
+      <c r="E101" s="47"/>
+      <c r="F101" s="47"/>
+      <c r="G101" s="47"/>
+      <c r="H101" s="47"/>
+      <c r="I101" s="47"/>
       <c r="J101" s="47"/>
       <c r="K101" s="45" t="s">
-        <v>481</v>
-      </c>
-      <c r="L101" s="47" t="s">
-        <v>432</v>
+        <v>482</v>
+      </c>
+      <c r="L101" s="45" t="s">
+        <v>430</v>
       </c>
       <c r="M101" s="47"/>
-      <c r="N101" s="45"/>
-      <c r="O101" s="45"/>
-      <c r="P101" s="45"/>
-      <c r="Q101" s="45"/>
-      <c r="R101" s="45"/>
-      <c r="S101" s="45"/>
-      <c r="T101" s="45"/>
-      <c r="U101" s="45"/>
+      <c r="N101" s="47"/>
+      <c r="O101" s="47"/>
+      <c r="P101" s="47"/>
+      <c r="Q101" s="47"/>
+      <c r="R101" s="47"/>
+      <c r="S101" s="47"/>
+      <c r="T101" s="47"/>
+      <c r="U101" s="47"/>
       <c r="V101" s="47"/>
-      <c r="W101" s="45"/>
+      <c r="W101" s="47"/>
       <c r="X101" s="47"/>
       <c r="Y101" s="47"/>
       <c r="Z101" s="47"/>
@@ -6554,10 +6576,10 @@
         <v>117</v>
       </c>
       <c r="B102" s="44" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C102" s="45" t="s">
-        <v>262</v>
+        <v>477</v>
       </c>
       <c r="D102" s="46"/>
       <c r="E102" s="46"/>
@@ -6602,35 +6624,35 @@
         <v>117</v>
       </c>
       <c r="B103" s="44" t="s">
-        <v>478</v>
-      </c>
-      <c r="C103" s="47" t="s">
-        <v>435</v>
-      </c>
-      <c r="D103" s="47"/>
-      <c r="E103" s="47"/>
-      <c r="F103" s="47"/>
-      <c r="G103" s="47"/>
-      <c r="H103" s="47"/>
-      <c r="I103" s="47"/>
+        <v>437</v>
+      </c>
+      <c r="C103" s="45" t="s">
+        <v>521</v>
+      </c>
+      <c r="D103" s="46"/>
+      <c r="E103" s="46"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="46"/>
       <c r="J103" s="47"/>
       <c r="K103" s="45" t="s">
         <v>482</v>
       </c>
-      <c r="L103" s="45" t="s">
-        <v>430</v>
+      <c r="L103" s="47" t="s">
+        <v>432</v>
       </c>
       <c r="M103" s="47"/>
-      <c r="N103" s="47"/>
-      <c r="O103" s="47"/>
-      <c r="P103" s="47"/>
-      <c r="Q103" s="47"/>
-      <c r="R103" s="47"/>
-      <c r="S103" s="47"/>
-      <c r="T103" s="47"/>
-      <c r="U103" s="47"/>
+      <c r="N103" s="45"/>
+      <c r="O103" s="45"/>
+      <c r="P103" s="45"/>
+      <c r="Q103" s="45"/>
+      <c r="R103" s="45"/>
+      <c r="S103" s="45"/>
+      <c r="T103" s="45"/>
+      <c r="U103" s="45"/>
       <c r="V103" s="47"/>
-      <c r="W103" s="47"/>
+      <c r="W103" s="45"/>
       <c r="X103" s="47"/>
       <c r="Y103" s="47"/>
       <c r="Z103" s="47"/>
@@ -6650,10 +6672,10 @@
         <v>117</v>
       </c>
       <c r="B104" s="44" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="C104" s="45" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="D104" s="46"/>
       <c r="E104" s="46"/>
@@ -6663,10 +6685,10 @@
       <c r="I104" s="46"/>
       <c r="J104" s="47"/>
       <c r="K104" s="45" t="s">
-        <v>482</v>
-      </c>
-      <c r="L104" s="47" t="s">
-        <v>432</v>
+        <v>495</v>
+      </c>
+      <c r="L104" s="45" t="s">
+        <v>430</v>
       </c>
       <c r="M104" s="47"/>
       <c r="N104" s="45"/>
@@ -6698,35 +6720,35 @@
         <v>117</v>
       </c>
       <c r="B105" s="44" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="C105" s="45" t="s">
-        <v>521</v>
-      </c>
-      <c r="D105" s="46"/>
-      <c r="E105" s="46"/>
-      <c r="F105" s="46"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="46"/>
-      <c r="I105" s="46"/>
+        <v>505</v>
+      </c>
+      <c r="D105" s="47"/>
+      <c r="E105" s="47"/>
+      <c r="F105" s="47"/>
+      <c r="G105" s="47"/>
+      <c r="H105" s="47"/>
+      <c r="I105" s="47"/>
       <c r="J105" s="47"/>
       <c r="K105" s="45" t="s">
-        <v>482</v>
-      </c>
-      <c r="L105" s="47" t="s">
+        <v>496</v>
+      </c>
+      <c r="L105" s="45" t="s">
         <v>432</v>
       </c>
       <c r="M105" s="47"/>
-      <c r="N105" s="45"/>
-      <c r="O105" s="45"/>
-      <c r="P105" s="45"/>
-      <c r="Q105" s="45"/>
-      <c r="R105" s="45"/>
-      <c r="S105" s="45"/>
-      <c r="T105" s="45"/>
-      <c r="U105" s="45"/>
+      <c r="N105" s="47"/>
+      <c r="O105" s="47"/>
+      <c r="P105" s="47"/>
+      <c r="Q105" s="47"/>
+      <c r="R105" s="47"/>
+      <c r="S105" s="47"/>
+      <c r="T105" s="47"/>
+      <c r="U105" s="47"/>
       <c r="V105" s="47"/>
-      <c r="W105" s="45"/>
+      <c r="W105" s="47"/>
       <c r="X105" s="47"/>
       <c r="Y105" s="47"/>
       <c r="Z105" s="47"/>
@@ -6746,35 +6768,35 @@
         <v>117</v>
       </c>
       <c r="B106" s="44" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C106" s="45" t="s">
-        <v>494</v>
-      </c>
-      <c r="D106" s="46"/>
-      <c r="E106" s="46"/>
-      <c r="F106" s="46"/>
-      <c r="G106" s="46"/>
-      <c r="H106" s="46"/>
-      <c r="I106" s="46"/>
+        <v>506</v>
+      </c>
+      <c r="D106" s="47"/>
+      <c r="E106" s="47"/>
+      <c r="F106" s="47"/>
+      <c r="G106" s="47"/>
+      <c r="H106" s="47"/>
+      <c r="I106" s="47"/>
       <c r="J106" s="47"/>
       <c r="K106" s="45" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L106" s="45" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M106" s="47"/>
-      <c r="N106" s="45"/>
-      <c r="O106" s="45"/>
-      <c r="P106" s="45"/>
-      <c r="Q106" s="45"/>
-      <c r="R106" s="45"/>
-      <c r="S106" s="45"/>
-      <c r="T106" s="45"/>
-      <c r="U106" s="45"/>
+      <c r="N106" s="47"/>
+      <c r="O106" s="47"/>
+      <c r="P106" s="47"/>
+      <c r="Q106" s="47"/>
+      <c r="R106" s="47"/>
+      <c r="S106" s="47"/>
+      <c r="T106" s="47"/>
+      <c r="U106" s="47"/>
       <c r="V106" s="47"/>
-      <c r="W106" s="45"/>
+      <c r="W106" s="47"/>
       <c r="X106" s="47"/>
       <c r="Y106" s="47"/>
       <c r="Z106" s="47"/>
@@ -6794,10 +6816,10 @@
         <v>117</v>
       </c>
       <c r="B107" s="44" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C107" s="45" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D107" s="47"/>
       <c r="E107" s="47"/>
@@ -6807,7 +6829,7 @@
       <c r="I107" s="47"/>
       <c r="J107" s="47"/>
       <c r="K107" s="45" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L107" s="45" t="s">
         <v>432</v>
@@ -6842,10 +6864,10 @@
         <v>117</v>
       </c>
       <c r="B108" s="44" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C108" s="45" t="s">
-        <v>506</v>
+        <v>218</v>
       </c>
       <c r="D108" s="47"/>
       <c r="E108" s="47"/>
@@ -6855,7 +6877,7 @@
       <c r="I108" s="47"/>
       <c r="J108" s="47"/>
       <c r="K108" s="45" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L108" s="45" t="s">
         <v>432</v>
@@ -6890,10 +6912,10 @@
         <v>117</v>
       </c>
       <c r="B109" s="44" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C109" s="45" t="s">
-        <v>507</v>
+        <v>219</v>
       </c>
       <c r="D109" s="47"/>
       <c r="E109" s="47"/>
@@ -6903,7 +6925,7 @@
       <c r="I109" s="47"/>
       <c r="J109" s="47"/>
       <c r="K109" s="45" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L109" s="45" t="s">
         <v>432</v>
@@ -6938,10 +6960,10 @@
         <v>117</v>
       </c>
       <c r="B110" s="44" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C110" s="45" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D110" s="47"/>
       <c r="E110" s="47"/>
@@ -6951,7 +6973,7 @@
       <c r="I110" s="47"/>
       <c r="J110" s="47"/>
       <c r="K110" s="45" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L110" s="45" t="s">
         <v>432</v>
@@ -6986,10 +7008,10 @@
         <v>117</v>
       </c>
       <c r="B111" s="44" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C111" s="45" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D111" s="47"/>
       <c r="E111" s="47"/>
@@ -6999,7 +7021,7 @@
       <c r="I111" s="47"/>
       <c r="J111" s="47"/>
       <c r="K111" s="45" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L111" s="45" t="s">
         <v>432</v>
@@ -7034,10 +7056,10 @@
         <v>117</v>
       </c>
       <c r="B112" s="44" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C112" s="45" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D112" s="47"/>
       <c r="E112" s="47"/>
@@ -7047,7 +7069,7 @@
       <c r="I112" s="47"/>
       <c r="J112" s="47"/>
       <c r="K112" s="45" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L112" s="45" t="s">
         <v>432</v>
@@ -7082,10 +7104,10 @@
         <v>117</v>
       </c>
       <c r="B113" s="44" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C113" s="45" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D113" s="47"/>
       <c r="E113" s="47"/>
@@ -7095,7 +7117,7 @@
       <c r="I113" s="47"/>
       <c r="J113" s="47"/>
       <c r="K113" s="45" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L113" s="45" t="s">
         <v>432</v>
@@ -7130,10 +7152,10 @@
         <v>117</v>
       </c>
       <c r="B114" s="44" t="s">
-        <v>492</v>
+        <v>439</v>
       </c>
       <c r="C114" s="45" t="s">
-        <v>222</v>
+        <v>440</v>
       </c>
       <c r="D114" s="47"/>
       <c r="E114" s="47"/>
@@ -7142,11 +7164,11 @@
       <c r="H114" s="47"/>
       <c r="I114" s="47"/>
       <c r="J114" s="47"/>
-      <c r="K114" s="45" t="s">
-        <v>503</v>
+      <c r="K114" s="47" t="s">
+        <v>508</v>
       </c>
       <c r="L114" s="45" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="M114" s="47"/>
       <c r="N114" s="47"/>
@@ -7178,10 +7200,10 @@
         <v>117</v>
       </c>
       <c r="B115" s="44" t="s">
-        <v>493</v>
+        <v>442</v>
       </c>
       <c r="C115" s="45" t="s">
-        <v>223</v>
+        <v>443</v>
       </c>
       <c r="D115" s="47"/>
       <c r="E115" s="47"/>
@@ -7191,11 +7213,9 @@
       <c r="I115" s="47"/>
       <c r="J115" s="47"/>
       <c r="K115" s="45" t="s">
-        <v>504</v>
-      </c>
-      <c r="L115" s="45" t="s">
-        <v>432</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="L115" s="45"/>
       <c r="M115" s="47"/>
       <c r="N115" s="47"/>
       <c r="O115" s="47"/>
@@ -7226,10 +7246,10 @@
         <v>117</v>
       </c>
       <c r="B116" s="44" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C116" s="45" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D116" s="47"/>
       <c r="E116" s="47"/>
@@ -7238,11 +7258,11 @@
       <c r="H116" s="47"/>
       <c r="I116" s="47"/>
       <c r="J116" s="47"/>
-      <c r="K116" s="47" t="s">
-        <v>508</v>
+      <c r="K116" s="45" t="s">
+        <v>495</v>
       </c>
       <c r="L116" s="45" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="M116" s="47"/>
       <c r="N116" s="47"/>
@@ -7274,33 +7294,35 @@
         <v>117</v>
       </c>
       <c r="B117" s="44" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C117" s="45" t="s">
-        <v>443</v>
-      </c>
-      <c r="D117" s="47"/>
-      <c r="E117" s="47"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="47"/>
-      <c r="H117" s="47"/>
-      <c r="I117" s="47"/>
+        <v>447</v>
+      </c>
+      <c r="D117" s="46"/>
+      <c r="E117" s="46"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="46"/>
+      <c r="H117" s="46"/>
+      <c r="I117" s="46"/>
       <c r="J117" s="47"/>
       <c r="K117" s="45" t="s">
-        <v>444</v>
-      </c>
-      <c r="L117" s="45"/>
+        <v>481</v>
+      </c>
+      <c r="L117" s="47" t="s">
+        <v>432</v>
+      </c>
       <c r="M117" s="47"/>
-      <c r="N117" s="47"/>
-      <c r="O117" s="47"/>
-      <c r="P117" s="47"/>
-      <c r="Q117" s="47"/>
-      <c r="R117" s="47"/>
-      <c r="S117" s="47"/>
-      <c r="T117" s="47"/>
-      <c r="U117" s="47"/>
+      <c r="N117" s="45"/>
+      <c r="O117" s="45"/>
+      <c r="P117" s="45"/>
+      <c r="Q117" s="45"/>
+      <c r="R117" s="45"/>
+      <c r="S117" s="45"/>
+      <c r="T117" s="45"/>
+      <c r="U117" s="45"/>
       <c r="V117" s="47"/>
-      <c r="W117" s="47"/>
+      <c r="W117" s="45"/>
       <c r="X117" s="47"/>
       <c r="Y117" s="47"/>
       <c r="Z117" s="47"/>
@@ -7320,35 +7342,33 @@
         <v>117</v>
       </c>
       <c r="B118" s="44" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C118" s="45" t="s">
-        <v>438</v>
-      </c>
-      <c r="D118" s="47"/>
-      <c r="E118" s="47"/>
-      <c r="F118" s="47"/>
-      <c r="G118" s="47"/>
-      <c r="H118" s="47"/>
-      <c r="I118" s="47"/>
+        <v>449</v>
+      </c>
+      <c r="D118" s="46"/>
+      <c r="E118" s="46"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="46"/>
+      <c r="H118" s="46"/>
+      <c r="I118" s="46"/>
       <c r="J118" s="47"/>
-      <c r="K118" s="45" t="s">
-        <v>495</v>
-      </c>
-      <c r="L118" s="45" t="s">
-        <v>432</v>
-      </c>
+      <c r="K118" s="47" t="s">
+        <v>483</v>
+      </c>
+      <c r="L118" s="47"/>
       <c r="M118" s="47"/>
-      <c r="N118" s="47"/>
-      <c r="O118" s="47"/>
-      <c r="P118" s="47"/>
-      <c r="Q118" s="47"/>
-      <c r="R118" s="47"/>
-      <c r="S118" s="47"/>
-      <c r="T118" s="47"/>
-      <c r="U118" s="47"/>
+      <c r="N118" s="45"/>
+      <c r="O118" s="45"/>
+      <c r="P118" s="45"/>
+      <c r="Q118" s="45"/>
+      <c r="R118" s="45"/>
+      <c r="S118" s="45"/>
+      <c r="T118" s="45"/>
+      <c r="U118" s="45"/>
       <c r="V118" s="47"/>
-      <c r="W118" s="47"/>
+      <c r="W118" s="45"/>
       <c r="X118" s="47"/>
       <c r="Y118" s="47"/>
       <c r="Z118" s="47"/>
@@ -7368,10 +7388,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="44" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C119" s="45" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D119" s="46"/>
       <c r="E119" s="46"/>
@@ -7380,12 +7400,10 @@
       <c r="H119" s="46"/>
       <c r="I119" s="46"/>
       <c r="J119" s="47"/>
-      <c r="K119" s="45" t="s">
-        <v>481</v>
-      </c>
-      <c r="L119" s="47" t="s">
-        <v>432</v>
-      </c>
+      <c r="K119" s="47" t="s">
+        <v>483</v>
+      </c>
+      <c r="L119" s="47"/>
       <c r="M119" s="47"/>
       <c r="N119" s="45"/>
       <c r="O119" s="45"/>
@@ -7416,33 +7434,35 @@
         <v>117</v>
       </c>
       <c r="B120" s="44" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C120" s="45" t="s">
-        <v>449</v>
-      </c>
-      <c r="D120" s="46"/>
-      <c r="E120" s="46"/>
-      <c r="F120" s="46"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="46"/>
-      <c r="I120" s="46"/>
+        <v>453</v>
+      </c>
+      <c r="D120" s="47"/>
+      <c r="E120" s="47"/>
+      <c r="F120" s="47"/>
+      <c r="G120" s="47"/>
+      <c r="H120" s="47"/>
+      <c r="I120" s="47"/>
       <c r="J120" s="47"/>
-      <c r="K120" s="47" t="s">
-        <v>483</v>
-      </c>
-      <c r="L120" s="47"/>
+      <c r="K120" s="45" t="s">
+        <v>495</v>
+      </c>
+      <c r="L120" s="45" t="s">
+        <v>454</v>
+      </c>
       <c r="M120" s="47"/>
-      <c r="N120" s="45"/>
-      <c r="O120" s="45"/>
-      <c r="P120" s="45"/>
-      <c r="Q120" s="45"/>
-      <c r="R120" s="45"/>
-      <c r="S120" s="45"/>
-      <c r="T120" s="45"/>
-      <c r="U120" s="45"/>
+      <c r="N120" s="47"/>
+      <c r="O120" s="47"/>
+      <c r="P120" s="47"/>
+      <c r="Q120" s="47"/>
+      <c r="R120" s="47"/>
+      <c r="S120" s="47"/>
+      <c r="T120" s="47"/>
+      <c r="U120" s="47"/>
       <c r="V120" s="47"/>
-      <c r="W120" s="45"/>
+      <c r="W120" s="47"/>
       <c r="X120" s="47"/>
       <c r="Y120" s="47"/>
       <c r="Z120" s="47"/>
@@ -7462,33 +7482,33 @@
         <v>117</v>
       </c>
       <c r="B121" s="44" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C121" s="45" t="s">
-        <v>451</v>
-      </c>
-      <c r="D121" s="46"/>
-      <c r="E121" s="46"/>
-      <c r="F121" s="46"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="46"/>
-      <c r="I121" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="D121" s="47"/>
+      <c r="E121" s="47"/>
+      <c r="F121" s="47"/>
+      <c r="G121" s="47"/>
+      <c r="H121" s="47"/>
+      <c r="I121" s="47"/>
       <c r="J121" s="47"/>
-      <c r="K121" s="47" t="s">
-        <v>483</v>
-      </c>
-      <c r="L121" s="47"/>
+      <c r="K121" s="45" t="s">
+        <v>495</v>
+      </c>
+      <c r="L121" s="45"/>
       <c r="M121" s="47"/>
-      <c r="N121" s="45"/>
-      <c r="O121" s="45"/>
-      <c r="P121" s="45"/>
-      <c r="Q121" s="45"/>
-      <c r="R121" s="45"/>
-      <c r="S121" s="45"/>
-      <c r="T121" s="45"/>
-      <c r="U121" s="45"/>
+      <c r="N121" s="47"/>
+      <c r="O121" s="47"/>
+      <c r="P121" s="47"/>
+      <c r="Q121" s="47"/>
+      <c r="R121" s="47"/>
+      <c r="S121" s="47"/>
+      <c r="T121" s="47"/>
+      <c r="U121" s="47"/>
       <c r="V121" s="47"/>
-      <c r="W121" s="45"/>
+      <c r="W121" s="47"/>
       <c r="X121" s="47"/>
       <c r="Y121" s="47"/>
       <c r="Z121" s="47"/>
@@ -7508,10 +7528,10 @@
         <v>117</v>
       </c>
       <c r="B122" s="44" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C122" s="45" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D122" s="47"/>
       <c r="E122" s="47"/>
@@ -7523,9 +7543,7 @@
       <c r="K122" s="45" t="s">
         <v>495</v>
       </c>
-      <c r="L122" s="45" t="s">
-        <v>454</v>
-      </c>
+      <c r="L122" s="45"/>
       <c r="M122" s="47"/>
       <c r="N122" s="47"/>
       <c r="O122" s="47"/>
@@ -7556,10 +7574,10 @@
         <v>117</v>
       </c>
       <c r="B123" s="44" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C123" s="45" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D123" s="47"/>
       <c r="E123" s="47"/>
@@ -7599,36 +7617,30 @@
     </row>
     <row r="124" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B124" s="44" t="s">
-        <v>457</v>
-      </c>
-      <c r="C124" s="45" t="s">
-        <v>458</v>
-      </c>
-      <c r="D124" s="47"/>
-      <c r="E124" s="47"/>
-      <c r="F124" s="47"/>
-      <c r="G124" s="47"/>
-      <c r="H124" s="47"/>
-      <c r="I124" s="47"/>
+        <v>68</v>
+      </c>
+      <c r="B124" s="44"/>
+      <c r="C124" s="45"/>
+      <c r="D124" s="46"/>
+      <c r="E124" s="46"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="46"/>
+      <c r="H124" s="46"/>
+      <c r="I124" s="46"/>
       <c r="J124" s="47"/>
-      <c r="K124" s="45" t="s">
-        <v>495</v>
-      </c>
-      <c r="L124" s="45"/>
+      <c r="K124" s="47"/>
+      <c r="L124" s="47"/>
       <c r="M124" s="47"/>
-      <c r="N124" s="47"/>
-      <c r="O124" s="47"/>
-      <c r="P124" s="47"/>
-      <c r="Q124" s="47"/>
-      <c r="R124" s="47"/>
-      <c r="S124" s="47"/>
-      <c r="T124" s="47"/>
-      <c r="U124" s="47"/>
+      <c r="N124" s="45"/>
+      <c r="O124" s="45"/>
+      <c r="P124" s="45"/>
+      <c r="Q124" s="45"/>
+      <c r="R124" s="45"/>
+      <c r="S124" s="45"/>
+      <c r="T124" s="45"/>
+      <c r="U124" s="45"/>
       <c r="V124" s="47"/>
-      <c r="W124" s="47"/>
+      <c r="W124" s="45"/>
       <c r="X124" s="47"/>
       <c r="Y124" s="47"/>
       <c r="Z124" s="47"/>
@@ -7644,109 +7656,119 @@
       <c r="AJ124" s="47"/>
     </row>
     <row r="125" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B125" s="44" t="s">
-        <v>459</v>
-      </c>
-      <c r="C125" s="45" t="s">
-        <v>460</v>
-      </c>
-      <c r="D125" s="47"/>
-      <c r="E125" s="47"/>
-      <c r="F125" s="47"/>
-      <c r="G125" s="47"/>
-      <c r="H125" s="47"/>
-      <c r="I125" s="47"/>
-      <c r="J125" s="47"/>
-      <c r="K125" s="45" t="s">
-        <v>495</v>
-      </c>
-      <c r="L125" s="45"/>
-      <c r="M125" s="47"/>
-      <c r="N125" s="47"/>
-      <c r="O125" s="47"/>
-      <c r="P125" s="47"/>
-      <c r="Q125" s="47"/>
-      <c r="R125" s="47"/>
-      <c r="S125" s="47"/>
-      <c r="T125" s="47"/>
-      <c r="U125" s="47"/>
-      <c r="V125" s="47"/>
-      <c r="W125" s="47"/>
-      <c r="X125" s="47"/>
-      <c r="Y125" s="47"/>
-      <c r="Z125" s="47"/>
-      <c r="AA125" s="47"/>
-      <c r="AB125" s="47"/>
-      <c r="AC125" s="47"/>
-      <c r="AD125" s="47"/>
-      <c r="AE125" s="47"/>
-      <c r="AF125" s="47"/>
-      <c r="AG125" s="47"/>
-      <c r="AH125" s="47"/>
-      <c r="AI125" s="47"/>
-      <c r="AJ125" s="47"/>
+      <c r="A125" s="31"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="31"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="31"/>
+      <c r="AF125" s="31"/>
+      <c r="AG125" s="31"/>
+      <c r="AH125" s="31"/>
+      <c r="AI125" s="31"/>
+      <c r="AJ125" s="31"/>
     </row>
     <row r="126" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B126" s="44"/>
-      <c r="C126" s="45"/>
-      <c r="D126" s="46"/>
-      <c r="E126" s="46"/>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="46"/>
-      <c r="I126" s="46"/>
-      <c r="J126" s="47"/>
-      <c r="K126" s="47"/>
-      <c r="L126" s="47"/>
-      <c r="M126" s="47"/>
-      <c r="N126" s="45"/>
-      <c r="O126" s="45"/>
-      <c r="P126" s="45"/>
-      <c r="Q126" s="45"/>
-      <c r="R126" s="45"/>
-      <c r="S126" s="45"/>
-      <c r="T126" s="45"/>
-      <c r="U126" s="45"/>
-      <c r="V126" s="47"/>
-      <c r="W126" s="45"/>
-      <c r="X126" s="47"/>
-      <c r="Y126" s="47"/>
-      <c r="Z126" s="47"/>
-      <c r="AA126" s="47"/>
-      <c r="AB126" s="47"/>
-      <c r="AC126" s="47"/>
-      <c r="AD126" s="47"/>
-      <c r="AE126" s="47"/>
-      <c r="AF126" s="47"/>
-      <c r="AG126" s="47"/>
-      <c r="AH126" s="47"/>
-      <c r="AI126" s="47"/>
-      <c r="AJ126" s="47"/>
+      <c r="A126" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B126" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C126" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D126" s="50"/>
+      <c r="E126" s="50"/>
+      <c r="F126" s="50"/>
+      <c r="G126" s="50"/>
+      <c r="H126" s="50"/>
+      <c r="I126" s="50"/>
+      <c r="J126" s="50"/>
+      <c r="K126" s="50"/>
+      <c r="L126" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="M126" s="50"/>
+      <c r="N126" s="50"/>
+      <c r="O126" s="50"/>
+      <c r="P126" s="50"/>
+      <c r="Q126" s="50"/>
+      <c r="R126" s="50"/>
+      <c r="S126" s="50"/>
+      <c r="T126" s="50"/>
+      <c r="U126" s="50"/>
+      <c r="V126" s="50"/>
+      <c r="W126" s="50"/>
+      <c r="X126" s="50"/>
+      <c r="Y126" s="50"/>
+      <c r="Z126" s="50"/>
+      <c r="AA126" s="50"/>
+      <c r="AB126" s="50"/>
+      <c r="AC126" s="50"/>
+      <c r="AD126" s="50"/>
+      <c r="AE126" s="50"/>
+      <c r="AF126" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG126" s="50"/>
+      <c r="AH126" s="50"/>
+      <c r="AI126" s="50"/>
+      <c r="AJ126" s="50"/>
     </row>
     <row r="127" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="31"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="31"/>
-      <c r="E127" s="31"/>
-      <c r="F127" s="31"/>
-      <c r="AF127" s="31"/>
-      <c r="AG127" s="31"/>
-      <c r="AH127" s="31"/>
-      <c r="AI127" s="31"/>
-      <c r="AJ127" s="31"/>
+      <c r="A127" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B127" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="C127" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D127" s="50"/>
+      <c r="E127" s="50"/>
+      <c r="F127" s="50"/>
+      <c r="G127" s="50"/>
+      <c r="H127" s="50"/>
+      <c r="I127" s="50"/>
+      <c r="J127" s="50"/>
+      <c r="K127" s="50"/>
+      <c r="L127" s="50"/>
+      <c r="M127" s="50"/>
+      <c r="N127" s="50"/>
+      <c r="O127" s="50"/>
+      <c r="P127" s="50"/>
+      <c r="Q127" s="50"/>
+      <c r="R127" s="50"/>
+      <c r="S127" s="50"/>
+      <c r="T127" s="50"/>
+      <c r="U127" s="50" t="s">
+        <v>510</v>
+      </c>
+      <c r="V127" s="50"/>
+      <c r="W127" s="50"/>
+      <c r="X127" s="50"/>
+      <c r="Y127" s="50"/>
+      <c r="Z127" s="50"/>
+      <c r="AA127" s="50"/>
+      <c r="AB127" s="50"/>
+      <c r="AC127" s="50"/>
+      <c r="AD127" s="50"/>
+      <c r="AE127" s="50"/>
+      <c r="AF127" s="50"/>
+      <c r="AG127" s="50"/>
+      <c r="AH127" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI127" s="50"/>
+      <c r="AJ127" s="50"/>
     </row>
     <row r="128" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B128" s="49" t="s">
-        <v>48</v>
+        <v>78</v>
+      </c>
+      <c r="B128" s="52" t="s">
+        <v>237</v>
       </c>
       <c r="C128" s="50" t="s">
         <v>45</v>
@@ -7759,9 +7781,7 @@
       <c r="I128" s="50"/>
       <c r="J128" s="50"/>
       <c r="K128" s="50"/>
-      <c r="L128" s="51" t="s">
-        <v>50</v>
-      </c>
+      <c r="L128" s="50"/>
       <c r="M128" s="50"/>
       <c r="N128" s="50"/>
       <c r="O128" s="50"/>
@@ -7770,7 +7790,9 @@
       <c r="R128" s="50"/>
       <c r="S128" s="50"/>
       <c r="T128" s="50"/>
-      <c r="U128" s="50"/>
+      <c r="U128" s="50" t="s">
+        <v>161</v>
+      </c>
       <c r="V128" s="50"/>
       <c r="W128" s="50"/>
       <c r="X128" s="50"/>
@@ -7781,11 +7803,11 @@
       <c r="AC128" s="50"/>
       <c r="AD128" s="50"/>
       <c r="AE128" s="50"/>
-      <c r="AF128" s="51" t="s">
-        <v>50</v>
-      </c>
+      <c r="AF128" s="50"/>
       <c r="AG128" s="50"/>
-      <c r="AH128" s="50"/>
+      <c r="AH128" s="51" t="s">
+        <v>131</v>
+      </c>
       <c r="AI128" s="50"/>
       <c r="AJ128" s="50"/>
     </row>
@@ -7794,7 +7816,7 @@
         <v>78</v>
       </c>
       <c r="B129" s="52" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C129" s="50" t="s">
         <v>45</v>
@@ -7817,7 +7839,7 @@
       <c r="S129" s="50"/>
       <c r="T129" s="50"/>
       <c r="U129" s="50" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="V129" s="50"/>
       <c r="W129" s="50"/>
@@ -7832,7 +7854,7 @@
       <c r="AF129" s="50"/>
       <c r="AG129" s="50"/>
       <c r="AH129" s="51" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AI129" s="50"/>
       <c r="AJ129" s="50"/>
@@ -7842,7 +7864,7 @@
         <v>78</v>
       </c>
       <c r="B130" s="52" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C130" s="50" t="s">
         <v>45</v>
@@ -7865,7 +7887,7 @@
       <c r="S130" s="50"/>
       <c r="T130" s="50"/>
       <c r="U130" s="50" t="s">
-        <v>161</v>
+        <v>512</v>
       </c>
       <c r="V130" s="50"/>
       <c r="W130" s="50"/>
@@ -7880,7 +7902,7 @@
       <c r="AF130" s="50"/>
       <c r="AG130" s="50"/>
       <c r="AH130" s="51" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AI130" s="50"/>
       <c r="AJ130" s="50"/>
@@ -7890,7 +7912,7 @@
         <v>78</v>
       </c>
       <c r="B131" s="52" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C131" s="50" t="s">
         <v>45</v>
@@ -7913,7 +7935,7 @@
       <c r="S131" s="50"/>
       <c r="T131" s="50"/>
       <c r="U131" s="50" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="V131" s="50"/>
       <c r="W131" s="50"/>
@@ -7928,7 +7950,7 @@
       <c r="AF131" s="50"/>
       <c r="AG131" s="50"/>
       <c r="AH131" s="51" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AI131" s="50"/>
       <c r="AJ131" s="50"/>
@@ -7938,7 +7960,7 @@
         <v>78</v>
       </c>
       <c r="B132" s="52" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C132" s="50" t="s">
         <v>45</v>
@@ -7961,7 +7983,7 @@
       <c r="S132" s="50"/>
       <c r="T132" s="50"/>
       <c r="U132" s="50" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="V132" s="50"/>
       <c r="W132" s="50"/>
@@ -7976,7 +7998,7 @@
       <c r="AF132" s="50"/>
       <c r="AG132" s="50"/>
       <c r="AH132" s="51" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AI132" s="50"/>
       <c r="AJ132" s="50"/>
@@ -7986,7 +8008,7 @@
         <v>78</v>
       </c>
       <c r="B133" s="52" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C133" s="50" t="s">
         <v>45</v>
@@ -8009,7 +8031,7 @@
       <c r="S133" s="50"/>
       <c r="T133" s="50"/>
       <c r="U133" s="50" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="V133" s="50"/>
       <c r="W133" s="50"/>
@@ -8024,7 +8046,7 @@
       <c r="AF133" s="50"/>
       <c r="AG133" s="50"/>
       <c r="AH133" s="51" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AI133" s="50"/>
       <c r="AJ133" s="50"/>
@@ -8034,7 +8056,7 @@
         <v>78</v>
       </c>
       <c r="B134" s="52" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C134" s="50" t="s">
         <v>45</v>
@@ -8057,7 +8079,7 @@
       <c r="S134" s="50"/>
       <c r="T134" s="50"/>
       <c r="U134" s="50" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="V134" s="50"/>
       <c r="W134" s="50"/>
@@ -8072,7 +8094,7 @@
       <c r="AF134" s="50"/>
       <c r="AG134" s="50"/>
       <c r="AH134" s="51" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="AI134" s="50"/>
       <c r="AJ134" s="50"/>
@@ -8082,7 +8104,7 @@
         <v>78</v>
       </c>
       <c r="B135" s="52" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C135" s="50" t="s">
         <v>45</v>
@@ -8105,7 +8127,7 @@
       <c r="S135" s="50"/>
       <c r="T135" s="50"/>
       <c r="U135" s="50" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="V135" s="50"/>
       <c r="W135" s="50"/>
@@ -8120,7 +8142,7 @@
       <c r="AF135" s="50"/>
       <c r="AG135" s="50"/>
       <c r="AH135" s="51" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="AI135" s="50"/>
       <c r="AJ135" s="50"/>
@@ -8130,7 +8152,7 @@
         <v>78</v>
       </c>
       <c r="B136" s="52" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C136" s="50" t="s">
         <v>45</v>
@@ -8153,7 +8175,7 @@
       <c r="S136" s="50"/>
       <c r="T136" s="50"/>
       <c r="U136" s="50" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="V136" s="50"/>
       <c r="W136" s="50"/>
@@ -8168,7 +8190,7 @@
       <c r="AF136" s="50"/>
       <c r="AG136" s="50"/>
       <c r="AH136" s="51" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="AI136" s="50"/>
       <c r="AJ136" s="50"/>
@@ -8178,7 +8200,7 @@
         <v>78</v>
       </c>
       <c r="B137" s="52" t="s">
-        <v>244</v>
+        <v>170</v>
       </c>
       <c r="C137" s="50" t="s">
         <v>45</v>
@@ -8201,7 +8223,7 @@
       <c r="S137" s="50"/>
       <c r="T137" s="50"/>
       <c r="U137" s="50" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="V137" s="50"/>
       <c r="W137" s="50"/>
@@ -8216,65 +8238,61 @@
       <c r="AF137" s="50"/>
       <c r="AG137" s="50"/>
       <c r="AH137" s="51" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="AI137" s="50"/>
       <c r="AJ137" s="50"/>
     </row>
     <row r="138" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B138" s="52" t="s">
-        <v>245</v>
+      <c r="A138" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B138" s="53" t="s">
+        <v>186</v>
       </c>
       <c r="C138" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D138" s="50"/>
-      <c r="E138" s="50"/>
-      <c r="F138" s="50"/>
-      <c r="G138" s="50"/>
-      <c r="H138" s="50"/>
-      <c r="I138" s="50"/>
-      <c r="J138" s="50"/>
-      <c r="K138" s="50"/>
-      <c r="L138" s="50"/>
-      <c r="M138" s="50"/>
-      <c r="N138" s="50"/>
-      <c r="O138" s="50"/>
-      <c r="P138" s="50"/>
-      <c r="Q138" s="50"/>
-      <c r="R138" s="50"/>
-      <c r="S138" s="50"/>
-      <c r="T138" s="50"/>
-      <c r="U138" s="50" t="s">
-        <v>518</v>
-      </c>
-      <c r="V138" s="50"/>
-      <c r="W138" s="50"/>
-      <c r="X138" s="50"/>
-      <c r="Y138" s="50"/>
-      <c r="Z138" s="50"/>
-      <c r="AA138" s="50"/>
-      <c r="AB138" s="50"/>
-      <c r="AC138" s="50"/>
-      <c r="AD138" s="50"/>
-      <c r="AE138" s="50"/>
-      <c r="AF138" s="50"/>
-      <c r="AG138" s="50"/>
-      <c r="AH138" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI138" s="50"/>
-      <c r="AJ138" s="50"/>
+      <c r="D138" s="51"/>
+      <c r="E138" s="51"/>
+      <c r="F138" s="51"/>
+      <c r="G138" s="51"/>
+      <c r="H138" s="51"/>
+      <c r="I138" s="51"/>
+      <c r="J138" s="51"/>
+      <c r="K138" s="51"/>
+      <c r="L138" s="51"/>
+      <c r="M138" s="51"/>
+      <c r="N138" s="51"/>
+      <c r="O138" s="51"/>
+      <c r="P138" s="51"/>
+      <c r="Q138" s="51"/>
+      <c r="R138" s="51"/>
+      <c r="S138" s="51"/>
+      <c r="T138" s="51"/>
+      <c r="U138" s="51"/>
+      <c r="V138" s="51"/>
+      <c r="W138" s="51"/>
+      <c r="X138" s="51"/>
+      <c r="Y138" s="51"/>
+      <c r="Z138" s="51"/>
+      <c r="AA138" s="51"/>
+      <c r="AB138" s="51"/>
+      <c r="AC138" s="51"/>
+      <c r="AD138" s="51"/>
+      <c r="AE138" s="51"/>
+      <c r="AF138" s="51"/>
+      <c r="AG138" s="51"/>
+      <c r="AH138" s="51"/>
+      <c r="AI138" s="51"/>
+      <c r="AJ138" s="51"/>
     </row>
     <row r="139" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="49" t="s">
         <v>78</v>
       </c>
       <c r="B139" s="52" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="C139" s="50" t="s">
         <v>45</v>
@@ -8296,8 +8314,8 @@
       <c r="R139" s="50"/>
       <c r="S139" s="50"/>
       <c r="T139" s="50"/>
-      <c r="U139" s="50" t="s">
-        <v>519</v>
+      <c r="U139" s="51" t="s">
+        <v>190</v>
       </c>
       <c r="V139" s="50"/>
       <c r="W139" s="50"/>
@@ -8312,61 +8330,65 @@
       <c r="AF139" s="50"/>
       <c r="AG139" s="50"/>
       <c r="AH139" s="51" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI139" s="50"/>
       <c r="AJ139" s="50"/>
     </row>
     <row r="140" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B140" s="53" t="s">
-        <v>186</v>
+      <c r="A140" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B140" s="52" t="s">
+        <v>192</v>
       </c>
       <c r="C140" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D140" s="51"/>
-      <c r="E140" s="51"/>
-      <c r="F140" s="51"/>
-      <c r="G140" s="51"/>
-      <c r="H140" s="51"/>
-      <c r="I140" s="51"/>
-      <c r="J140" s="51"/>
-      <c r="K140" s="51"/>
-      <c r="L140" s="51"/>
-      <c r="M140" s="51"/>
-      <c r="N140" s="51"/>
-      <c r="O140" s="51"/>
-      <c r="P140" s="51"/>
-      <c r="Q140" s="51"/>
-      <c r="R140" s="51"/>
-      <c r="S140" s="51"/>
-      <c r="T140" s="51"/>
-      <c r="U140" s="51"/>
-      <c r="V140" s="51"/>
-      <c r="W140" s="51"/>
-      <c r="X140" s="51"/>
-      <c r="Y140" s="51"/>
-      <c r="Z140" s="51"/>
-      <c r="AA140" s="51"/>
-      <c r="AB140" s="51"/>
-      <c r="AC140" s="51"/>
-      <c r="AD140" s="51"/>
-      <c r="AE140" s="51"/>
-      <c r="AF140" s="51"/>
-      <c r="AG140" s="51"/>
-      <c r="AH140" s="51"/>
-      <c r="AI140" s="51"/>
-      <c r="AJ140" s="51"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="50"/>
+      <c r="F140" s="50"/>
+      <c r="G140" s="50"/>
+      <c r="H140" s="50"/>
+      <c r="I140" s="50"/>
+      <c r="J140" s="50"/>
+      <c r="K140" s="50"/>
+      <c r="L140" s="50"/>
+      <c r="M140" s="50"/>
+      <c r="N140" s="50"/>
+      <c r="O140" s="50"/>
+      <c r="P140" s="50"/>
+      <c r="Q140" s="50"/>
+      <c r="R140" s="50"/>
+      <c r="S140" s="50"/>
+      <c r="T140" s="50"/>
+      <c r="U140" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="V140" s="50"/>
+      <c r="W140" s="50"/>
+      <c r="X140" s="50"/>
+      <c r="Y140" s="50"/>
+      <c r="Z140" s="50"/>
+      <c r="AA140" s="50"/>
+      <c r="AB140" s="50"/>
+      <c r="AC140" s="50"/>
+      <c r="AD140" s="50"/>
+      <c r="AE140" s="50"/>
+      <c r="AF140" s="50"/>
+      <c r="AG140" s="50"/>
+      <c r="AH140" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI140" s="50"/>
+      <c r="AJ140" s="50"/>
     </row>
     <row r="141" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="49" t="s">
         <v>78</v>
       </c>
       <c r="B141" s="52" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C141" s="50" t="s">
         <v>45</v>
@@ -8389,7 +8411,7 @@
       <c r="S141" s="50"/>
       <c r="T141" s="50"/>
       <c r="U141" s="51" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="V141" s="50"/>
       <c r="W141" s="50"/>
@@ -8404,7 +8426,7 @@
       <c r="AF141" s="50"/>
       <c r="AG141" s="50"/>
       <c r="AH141" s="51" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="AI141" s="50"/>
       <c r="AJ141" s="50"/>
@@ -8414,7 +8436,7 @@
         <v>78</v>
       </c>
       <c r="B142" s="52" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C142" s="50" t="s">
         <v>45</v>
@@ -8437,7 +8459,7 @@
       <c r="S142" s="50"/>
       <c r="T142" s="50"/>
       <c r="U142" s="51" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="V142" s="50"/>
       <c r="W142" s="50"/>
@@ -8452,7 +8474,7 @@
       <c r="AF142" s="50"/>
       <c r="AG142" s="50"/>
       <c r="AH142" s="51" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="AI142" s="50"/>
       <c r="AJ142" s="50"/>
@@ -8462,7 +8484,7 @@
         <v>78</v>
       </c>
       <c r="B143" s="52" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C143" s="50" t="s">
         <v>45</v>
@@ -8485,7 +8507,7 @@
       <c r="S143" s="50"/>
       <c r="T143" s="50"/>
       <c r="U143" s="51" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="V143" s="50"/>
       <c r="W143" s="50"/>
@@ -8500,197 +8522,101 @@
       <c r="AF143" s="50"/>
       <c r="AG143" s="50"/>
       <c r="AH143" s="51" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AI143" s="50"/>
       <c r="AJ143" s="50"/>
     </row>
     <row r="144" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B144" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C144" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D144" s="50"/>
-      <c r="E144" s="50"/>
-      <c r="F144" s="50"/>
-      <c r="G144" s="50"/>
-      <c r="H144" s="50"/>
-      <c r="I144" s="50"/>
-      <c r="J144" s="50"/>
-      <c r="K144" s="50"/>
-      <c r="L144" s="50"/>
-      <c r="M144" s="50"/>
-      <c r="N144" s="50"/>
-      <c r="O144" s="50"/>
-      <c r="P144" s="50"/>
-      <c r="Q144" s="50"/>
-      <c r="R144" s="50"/>
-      <c r="S144" s="50"/>
-      <c r="T144" s="50"/>
-      <c r="U144" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="V144" s="50"/>
-      <c r="W144" s="50"/>
-      <c r="X144" s="50"/>
-      <c r="Y144" s="50"/>
-      <c r="Z144" s="50"/>
-      <c r="AA144" s="50"/>
-      <c r="AB144" s="50"/>
-      <c r="AC144" s="50"/>
-      <c r="AD144" s="50"/>
-      <c r="AE144" s="50"/>
-      <c r="AF144" s="50"/>
-      <c r="AG144" s="50"/>
-      <c r="AH144" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI144" s="50"/>
-      <c r="AJ144" s="50"/>
+      <c r="A144" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B144" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C144" s="51"/>
+      <c r="D144" s="51"/>
+      <c r="E144" s="51"/>
+      <c r="F144" s="51"/>
+      <c r="G144" s="51"/>
+      <c r="H144" s="51"/>
+      <c r="I144" s="51"/>
+      <c r="J144" s="51"/>
+      <c r="K144" s="51"/>
+      <c r="L144" s="51"/>
+      <c r="M144" s="51"/>
+      <c r="N144" s="51"/>
+      <c r="O144" s="51"/>
+      <c r="P144" s="51"/>
+      <c r="Q144" s="51"/>
+      <c r="R144" s="51"/>
+      <c r="S144" s="51"/>
+      <c r="T144" s="51"/>
+      <c r="U144" s="51"/>
+      <c r="V144" s="51"/>
+      <c r="W144" s="51"/>
+      <c r="X144" s="51"/>
+      <c r="Y144" s="51"/>
+      <c r="Z144" s="51"/>
+      <c r="AA144" s="51"/>
+      <c r="AB144" s="51"/>
+      <c r="AC144" s="51"/>
+      <c r="AD144" s="51"/>
+      <c r="AE144" s="51"/>
+      <c r="AF144" s="51"/>
+      <c r="AG144" s="51"/>
+      <c r="AH144" s="51"/>
+      <c r="AI144" s="51"/>
+      <c r="AJ144" s="51"/>
     </row>
     <row r="145" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B145" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="C145" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D145" s="50"/>
-      <c r="E145" s="50"/>
-      <c r="F145" s="50"/>
-      <c r="G145" s="50"/>
-      <c r="H145" s="50"/>
-      <c r="I145" s="50"/>
-      <c r="J145" s="50"/>
-      <c r="K145" s="50"/>
-      <c r="L145" s="50"/>
-      <c r="M145" s="50"/>
-      <c r="N145" s="50"/>
-      <c r="O145" s="50"/>
-      <c r="P145" s="50"/>
-      <c r="Q145" s="50"/>
-      <c r="R145" s="50"/>
-      <c r="S145" s="50"/>
-      <c r="T145" s="50"/>
-      <c r="U145" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="V145" s="50"/>
-      <c r="W145" s="50"/>
-      <c r="X145" s="50"/>
-      <c r="Y145" s="50"/>
-      <c r="Z145" s="50"/>
-      <c r="AA145" s="50"/>
-      <c r="AB145" s="50"/>
-      <c r="AC145" s="50"/>
-      <c r="AD145" s="50"/>
-      <c r="AE145" s="50"/>
-      <c r="AF145" s="50"/>
-      <c r="AG145" s="50"/>
-      <c r="AH145" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI145" s="50"/>
-      <c r="AJ145" s="50"/>
-    </row>
-    <row r="146" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="53" t="s">
+      <c r="A145" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B146" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="C146" s="51"/>
-      <c r="D146" s="51"/>
-      <c r="E146" s="51"/>
-      <c r="F146" s="51"/>
-      <c r="G146" s="51"/>
-      <c r="H146" s="51"/>
-      <c r="I146" s="51"/>
-      <c r="J146" s="51"/>
-      <c r="K146" s="51"/>
-      <c r="L146" s="51"/>
-      <c r="M146" s="51"/>
-      <c r="N146" s="51"/>
-      <c r="O146" s="51"/>
-      <c r="P146" s="51"/>
-      <c r="Q146" s="51"/>
-      <c r="R146" s="51"/>
-      <c r="S146" s="51"/>
-      <c r="T146" s="51"/>
-      <c r="U146" s="51"/>
-      <c r="V146" s="51"/>
-      <c r="W146" s="51"/>
-      <c r="X146" s="51"/>
-      <c r="Y146" s="51"/>
-      <c r="Z146" s="51"/>
-      <c r="AA146" s="51"/>
-      <c r="AB146" s="51"/>
-      <c r="AC146" s="51"/>
-      <c r="AD146" s="51"/>
-      <c r="AE146" s="51"/>
-      <c r="AF146" s="51"/>
-      <c r="AG146" s="51"/>
-      <c r="AH146" s="51"/>
-      <c r="AI146" s="51"/>
-      <c r="AJ146" s="51"/>
-    </row>
-    <row r="147" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B147" s="53" t="s">
+      <c r="B145" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C147" s="51"/>
-      <c r="D147" s="51"/>
-      <c r="E147" s="51"/>
-      <c r="F147" s="51"/>
-      <c r="G147" s="51"/>
-      <c r="H147" s="51"/>
-      <c r="I147" s="51"/>
-      <c r="J147" s="51"/>
-      <c r="K147" s="51"/>
-      <c r="L147" s="51"/>
-      <c r="M147" s="51"/>
-      <c r="N147" s="51"/>
-      <c r="O147" s="51"/>
-      <c r="P147" s="51"/>
-      <c r="Q147" s="51"/>
-      <c r="R147" s="51"/>
-      <c r="S147" s="51"/>
-      <c r="T147" s="51"/>
-      <c r="U147" s="51"/>
-      <c r="V147" s="51"/>
-      <c r="W147" s="51"/>
-      <c r="X147" s="51"/>
-      <c r="Y147" s="51"/>
-      <c r="Z147" s="51"/>
-      <c r="AA147" s="51"/>
-      <c r="AB147" s="51"/>
-      <c r="AC147" s="51"/>
-      <c r="AD147" s="51"/>
-      <c r="AE147" s="51"/>
-      <c r="AF147" s="51"/>
-      <c r="AG147" s="51"/>
-      <c r="AH147" s="51"/>
-      <c r="AI147" s="51"/>
-      <c r="AJ147" s="51"/>
+      <c r="C145" s="51"/>
+      <c r="D145" s="51"/>
+      <c r="E145" s="51"/>
+      <c r="F145" s="51"/>
+      <c r="G145" s="51"/>
+      <c r="H145" s="51"/>
+      <c r="I145" s="51"/>
+      <c r="J145" s="51"/>
+      <c r="K145" s="51"/>
+      <c r="L145" s="51"/>
+      <c r="M145" s="51"/>
+      <c r="N145" s="51"/>
+      <c r="O145" s="51"/>
+      <c r="P145" s="51"/>
+      <c r="Q145" s="51"/>
+      <c r="R145" s="51"/>
+      <c r="S145" s="51"/>
+      <c r="T145" s="51"/>
+      <c r="U145" s="51"/>
+      <c r="V145" s="51"/>
+      <c r="W145" s="51"/>
+      <c r="X145" s="51"/>
+      <c r="Y145" s="51"/>
+      <c r="Z145" s="51"/>
+      <c r="AA145" s="51"/>
+      <c r="AB145" s="51"/>
+      <c r="AC145" s="51"/>
+      <c r="AD145" s="51"/>
+      <c r="AE145" s="51"/>
+      <c r="AF145" s="51"/>
+      <c r="AG145" s="51"/>
+      <c r="AH145" s="51"/>
+      <c r="AI145" s="51"/>
+      <c r="AJ145" s="51"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="A25:A27 A47:A71 A73:A77 A79:A126">
+    <dataValidation type="list" allowBlank="1" sqref="A23:A25 A45:A69 A71:A75 A77:A124">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J24:J147 E2:F20 D21:E23">
+    <dataValidation type="list" allowBlank="1" sqref="J22:J145 E2:F21">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10780,7 +10706,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44121.642152546294</v>
+        <v>44121.653998379632</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/covid_symptoms_daily_checks.xlsx
+++ b/forms/app/covid_symptoms_daily_checks.xlsx
@@ -1326,9 +1326,6 @@
     <t>r_patient_details</t>
   </si>
   <si>
-    <t>&lt;h2 style="text-align:center;margin-bottom:0px;"&gt;${patient_name}&lt;/h2&gt; &lt;p style="text-align:center;"&gt;${patient_age_in_years} years old&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>r_woman_condition</t>
   </si>
   <si>
@@ -1652,6 +1649,9 @@
   </si>
   <si>
     <t>../inputs/contact/_id</t>
+  </si>
+  <si>
+    <t>&lt;h2 style="text-align:center;margin-bottom:0px;"&gt;${patient_name}&lt;/h2&gt; &lt;p style="text-align:center;"&gt;${patient_age} years old&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -2220,10 +2220,10 @@
   <dimension ref="A1:AJ145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19:XFD19"/>
+      <selection pane="bottomRight" activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2514,7 +2514,7 @@
         <v>63</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
@@ -2621,10 +2621,10 @@
         <v>50</v>
       </c>
       <c r="B9" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>525</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>526</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -2657,7 +2657,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>45</v>
@@ -2693,10 +2693,10 @@
         <v>50</v>
       </c>
       <c r="B11" s="30" t="s">
+        <v>527</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>528</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>529</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -2729,10 +2729,10 @@
         <v>50</v>
       </c>
       <c r="B12" s="30" t="s">
+        <v>529</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>530</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>531</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -2765,10 +2765,10 @@
         <v>50</v>
       </c>
       <c r="B13" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>532</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>533</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
@@ -2801,10 +2801,10 @@
         <v>50</v>
       </c>
       <c r="B14" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>534</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>535</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
@@ -2991,7 +2991,7 @@
       <c r="S19" s="21"/>
       <c r="T19" s="22"/>
       <c r="U19" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="V19" s="22"/>
       <c r="W19" s="22"/>
@@ -3092,7 +3092,7 @@
         <v>248</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
@@ -4295,7 +4295,7 @@
       <c r="I50" s="35"/>
       <c r="J50" s="36"/>
       <c r="K50" s="36" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
@@ -5442,10 +5442,10 @@
         <v>42</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
@@ -5492,10 +5492,10 @@
         <v>117</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
@@ -5536,10 +5536,10 @@
         <v>117</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C79" s="34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="35"/>
@@ -5580,10 +5580,10 @@
         <v>117</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="35"/>
@@ -5624,10 +5624,10 @@
         <v>117</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="35"/>
@@ -5668,10 +5668,10 @@
         <v>117</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D82" s="35"/>
       <c r="E82" s="35"/>
@@ -5790,10 +5790,10 @@
         <v>42</v>
       </c>
       <c r="B85" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="C85" s="34" t="s">
         <v>473</v>
-      </c>
-      <c r="C85" s="34" t="s">
-        <v>474</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="35"/>
@@ -6007,7 +6007,7 @@
       <c r="S89" s="36"/>
       <c r="T89" s="36"/>
       <c r="U89" s="36" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="V89" s="36"/>
       <c r="W89" s="36"/>
@@ -6251,7 +6251,7 @@
         <v>427</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>428</v>
+        <v>536</v>
       </c>
       <c r="D95" s="47"/>
       <c r="E95" s="47"/>
@@ -6292,10 +6292,10 @@
         <v>117</v>
       </c>
       <c r="B96" s="44" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C96" s="45" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D96" s="47"/>
       <c r="E96" s="47"/>
@@ -6338,10 +6338,10 @@
         <v>117</v>
       </c>
       <c r="B97" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C97" s="47" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D97" s="47"/>
       <c r="E97" s="47"/>
@@ -6352,7 +6352,7 @@
       <c r="J97" s="47"/>
       <c r="K97" s="46"/>
       <c r="L97" s="45" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M97" s="47"/>
       <c r="N97" s="47"/>
@@ -6384,7 +6384,7 @@
         <v>117</v>
       </c>
       <c r="B98" s="44" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C98" s="45" t="s">
         <v>258</v>
@@ -6397,10 +6397,10 @@
       <c r="I98" s="46"/>
       <c r="J98" s="47"/>
       <c r="K98" s="45" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L98" s="47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M98" s="47"/>
       <c r="N98" s="45"/>
@@ -6432,7 +6432,7 @@
         <v>117</v>
       </c>
       <c r="B99" s="44" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C99" s="45" t="s">
         <v>260</v>
@@ -6445,10 +6445,10 @@
       <c r="I99" s="46"/>
       <c r="J99" s="47"/>
       <c r="K99" s="45" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L99" s="47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M99" s="47"/>
       <c r="N99" s="45"/>
@@ -6480,7 +6480,7 @@
         <v>117</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C100" s="45" t="s">
         <v>262</v>
@@ -6493,10 +6493,10 @@
       <c r="I100" s="46"/>
       <c r="J100" s="47"/>
       <c r="K100" s="45" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L100" s="47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M100" s="47"/>
       <c r="N100" s="45"/>
@@ -6528,10 +6528,10 @@
         <v>117</v>
       </c>
       <c r="B101" s="44" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C101" s="47" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D101" s="47"/>
       <c r="E101" s="47"/>
@@ -6541,10 +6541,10 @@
       <c r="I101" s="47"/>
       <c r="J101" s="47"/>
       <c r="K101" s="45" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L101" s="45" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M101" s="47"/>
       <c r="N101" s="47"/>
@@ -6576,10 +6576,10 @@
         <v>117</v>
       </c>
       <c r="B102" s="44" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C102" s="45" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D102" s="46"/>
       <c r="E102" s="46"/>
@@ -6589,10 +6589,10 @@
       <c r="I102" s="46"/>
       <c r="J102" s="47"/>
       <c r="K102" s="45" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L102" s="47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M102" s="47"/>
       <c r="N102" s="45"/>
@@ -6624,10 +6624,10 @@
         <v>117</v>
       </c>
       <c r="B103" s="44" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C103" s="45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D103" s="46"/>
       <c r="E103" s="46"/>
@@ -6637,10 +6637,10 @@
       <c r="I103" s="46"/>
       <c r="J103" s="47"/>
       <c r="K103" s="45" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L103" s="47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M103" s="47"/>
       <c r="N103" s="45"/>
@@ -6672,10 +6672,10 @@
         <v>117</v>
       </c>
       <c r="B104" s="44" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C104" s="45" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D104" s="46"/>
       <c r="E104" s="46"/>
@@ -6685,10 +6685,10 @@
       <c r="I104" s="46"/>
       <c r="J104" s="47"/>
       <c r="K104" s="45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L104" s="45" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M104" s="47"/>
       <c r="N104" s="45"/>
@@ -6720,10 +6720,10 @@
         <v>117</v>
       </c>
       <c r="B105" s="44" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C105" s="45" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D105" s="47"/>
       <c r="E105" s="47"/>
@@ -6733,10 +6733,10 @@
       <c r="I105" s="47"/>
       <c r="J105" s="47"/>
       <c r="K105" s="45" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L105" s="45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M105" s="47"/>
       <c r="N105" s="47"/>
@@ -6768,10 +6768,10 @@
         <v>117</v>
       </c>
       <c r="B106" s="44" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C106" s="45" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D106" s="47"/>
       <c r="E106" s="47"/>
@@ -6781,10 +6781,10 @@
       <c r="I106" s="47"/>
       <c r="J106" s="47"/>
       <c r="K106" s="45" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L106" s="45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M106" s="47"/>
       <c r="N106" s="47"/>
@@ -6816,10 +6816,10 @@
         <v>117</v>
       </c>
       <c r="B107" s="44" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C107" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D107" s="47"/>
       <c r="E107" s="47"/>
@@ -6829,10 +6829,10 @@
       <c r="I107" s="47"/>
       <c r="J107" s="47"/>
       <c r="K107" s="45" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L107" s="45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M107" s="47"/>
       <c r="N107" s="47"/>
@@ -6864,7 +6864,7 @@
         <v>117</v>
       </c>
       <c r="B108" s="44" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C108" s="45" t="s">
         <v>218</v>
@@ -6877,10 +6877,10 @@
       <c r="I108" s="47"/>
       <c r="J108" s="47"/>
       <c r="K108" s="45" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L108" s="45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M108" s="47"/>
       <c r="N108" s="47"/>
@@ -6912,7 +6912,7 @@
         <v>117</v>
       </c>
       <c r="B109" s="44" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C109" s="45" t="s">
         <v>219</v>
@@ -6925,10 +6925,10 @@
       <c r="I109" s="47"/>
       <c r="J109" s="47"/>
       <c r="K109" s="45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L109" s="45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M109" s="47"/>
       <c r="N109" s="47"/>
@@ -6960,7 +6960,7 @@
         <v>117</v>
       </c>
       <c r="B110" s="44" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C110" s="45" t="s">
         <v>220</v>
@@ -6973,10 +6973,10 @@
       <c r="I110" s="47"/>
       <c r="J110" s="47"/>
       <c r="K110" s="45" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L110" s="45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M110" s="47"/>
       <c r="N110" s="47"/>
@@ -7008,7 +7008,7 @@
         <v>117</v>
       </c>
       <c r="B111" s="44" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C111" s="45" t="s">
         <v>221</v>
@@ -7021,10 +7021,10 @@
       <c r="I111" s="47"/>
       <c r="J111" s="47"/>
       <c r="K111" s="45" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L111" s="45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M111" s="47"/>
       <c r="N111" s="47"/>
@@ -7056,7 +7056,7 @@
         <v>117</v>
       </c>
       <c r="B112" s="44" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C112" s="45" t="s">
         <v>222</v>
@@ -7069,10 +7069,10 @@
       <c r="I112" s="47"/>
       <c r="J112" s="47"/>
       <c r="K112" s="45" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L112" s="45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M112" s="47"/>
       <c r="N112" s="47"/>
@@ -7104,7 +7104,7 @@
         <v>117</v>
       </c>
       <c r="B113" s="44" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C113" s="45" t="s">
         <v>223</v>
@@ -7117,10 +7117,10 @@
       <c r="I113" s="47"/>
       <c r="J113" s="47"/>
       <c r="K113" s="45" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L113" s="45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M113" s="47"/>
       <c r="N113" s="47"/>
@@ -7152,10 +7152,10 @@
         <v>117</v>
       </c>
       <c r="B114" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="C114" s="45" t="s">
         <v>439</v>
-      </c>
-      <c r="C114" s="45" t="s">
-        <v>440</v>
       </c>
       <c r="D114" s="47"/>
       <c r="E114" s="47"/>
@@ -7165,10 +7165,10 @@
       <c r="I114" s="47"/>
       <c r="J114" s="47"/>
       <c r="K114" s="47" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L114" s="45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M114" s="47"/>
       <c r="N114" s="47"/>
@@ -7200,10 +7200,10 @@
         <v>117</v>
       </c>
       <c r="B115" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="C115" s="45" t="s">
         <v>442</v>
-      </c>
-      <c r="C115" s="45" t="s">
-        <v>443</v>
       </c>
       <c r="D115" s="47"/>
       <c r="E115" s="47"/>
@@ -7213,7 +7213,7 @@
       <c r="I115" s="47"/>
       <c r="J115" s="47"/>
       <c r="K115" s="45" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L115" s="45"/>
       <c r="M115" s="47"/>
@@ -7246,10 +7246,10 @@
         <v>117</v>
       </c>
       <c r="B116" s="44" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C116" s="45" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D116" s="47"/>
       <c r="E116" s="47"/>
@@ -7259,10 +7259,10 @@
       <c r="I116" s="47"/>
       <c r="J116" s="47"/>
       <c r="K116" s="45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L116" s="45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M116" s="47"/>
       <c r="N116" s="47"/>
@@ -7294,10 +7294,10 @@
         <v>117</v>
       </c>
       <c r="B117" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="C117" s="45" t="s">
         <v>446</v>
-      </c>
-      <c r="C117" s="45" t="s">
-        <v>447</v>
       </c>
       <c r="D117" s="46"/>
       <c r="E117" s="46"/>
@@ -7307,10 +7307,10 @@
       <c r="I117" s="46"/>
       <c r="J117" s="47"/>
       <c r="K117" s="45" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L117" s="47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M117" s="47"/>
       <c r="N117" s="45"/>
@@ -7342,10 +7342,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="C118" s="45" t="s">
         <v>448</v>
-      </c>
-      <c r="C118" s="45" t="s">
-        <v>449</v>
       </c>
       <c r="D118" s="46"/>
       <c r="E118" s="46"/>
@@ -7355,7 +7355,7 @@
       <c r="I118" s="46"/>
       <c r="J118" s="47"/>
       <c r="K118" s="47" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L118" s="47"/>
       <c r="M118" s="47"/>
@@ -7388,10 +7388,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="C119" s="45" t="s">
         <v>450</v>
-      </c>
-      <c r="C119" s="45" t="s">
-        <v>451</v>
       </c>
       <c r="D119" s="46"/>
       <c r="E119" s="46"/>
@@ -7401,7 +7401,7 @@
       <c r="I119" s="46"/>
       <c r="J119" s="47"/>
       <c r="K119" s="47" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L119" s="47"/>
       <c r="M119" s="47"/>
@@ -7434,10 +7434,10 @@
         <v>117</v>
       </c>
       <c r="B120" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="C120" s="45" t="s">
         <v>452</v>
-      </c>
-      <c r="C120" s="45" t="s">
-        <v>453</v>
       </c>
       <c r="D120" s="47"/>
       <c r="E120" s="47"/>
@@ -7447,10 +7447,10 @@
       <c r="I120" s="47"/>
       <c r="J120" s="47"/>
       <c r="K120" s="45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L120" s="45" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M120" s="47"/>
       <c r="N120" s="47"/>
@@ -7482,10 +7482,10 @@
         <v>117</v>
       </c>
       <c r="B121" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="C121" s="45" t="s">
         <v>455</v>
-      </c>
-      <c r="C121" s="45" t="s">
-        <v>456</v>
       </c>
       <c r="D121" s="47"/>
       <c r="E121" s="47"/>
@@ -7495,7 +7495,7 @@
       <c r="I121" s="47"/>
       <c r="J121" s="47"/>
       <c r="K121" s="45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L121" s="45"/>
       <c r="M121" s="47"/>
@@ -7528,10 +7528,10 @@
         <v>117</v>
       </c>
       <c r="B122" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="C122" s="45" t="s">
         <v>457</v>
-      </c>
-      <c r="C122" s="45" t="s">
-        <v>458</v>
       </c>
       <c r="D122" s="47"/>
       <c r="E122" s="47"/>
@@ -7541,7 +7541,7 @@
       <c r="I122" s="47"/>
       <c r="J122" s="47"/>
       <c r="K122" s="45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L122" s="45"/>
       <c r="M122" s="47"/>
@@ -7574,10 +7574,10 @@
         <v>117</v>
       </c>
       <c r="B123" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="C123" s="45" t="s">
         <v>459</v>
-      </c>
-      <c r="C123" s="45" t="s">
-        <v>460</v>
       </c>
       <c r="D123" s="47"/>
       <c r="E123" s="47"/>
@@ -7587,7 +7587,7 @@
       <c r="I123" s="47"/>
       <c r="J123" s="47"/>
       <c r="K123" s="45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L123" s="45"/>
       <c r="M123" s="47"/>
@@ -7743,7 +7743,7 @@
       <c r="S127" s="50"/>
       <c r="T127" s="50"/>
       <c r="U127" s="50" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="V127" s="50"/>
       <c r="W127" s="50"/>
@@ -7839,7 +7839,7 @@
       <c r="S129" s="50"/>
       <c r="T129" s="50"/>
       <c r="U129" s="50" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="V129" s="50"/>
       <c r="W129" s="50"/>
@@ -7887,7 +7887,7 @@
       <c r="S130" s="50"/>
       <c r="T130" s="50"/>
       <c r="U130" s="50" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="V130" s="50"/>
       <c r="W130" s="50"/>
@@ -7935,7 +7935,7 @@
       <c r="S131" s="50"/>
       <c r="T131" s="50"/>
       <c r="U131" s="50" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="V131" s="50"/>
       <c r="W131" s="50"/>
@@ -7983,7 +7983,7 @@
       <c r="S132" s="50"/>
       <c r="T132" s="50"/>
       <c r="U132" s="50" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="V132" s="50"/>
       <c r="W132" s="50"/>
@@ -8031,7 +8031,7 @@
       <c r="S133" s="50"/>
       <c r="T133" s="50"/>
       <c r="U133" s="50" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="V133" s="50"/>
       <c r="W133" s="50"/>
@@ -8079,7 +8079,7 @@
       <c r="S134" s="50"/>
       <c r="T134" s="50"/>
       <c r="U134" s="50" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="V134" s="50"/>
       <c r="W134" s="50"/>
@@ -8127,7 +8127,7 @@
       <c r="S135" s="50"/>
       <c r="T135" s="50"/>
       <c r="U135" s="50" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="V135" s="50"/>
       <c r="W135" s="50"/>
@@ -8175,7 +8175,7 @@
       <c r="S136" s="50"/>
       <c r="T136" s="50"/>
       <c r="U136" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="V136" s="50"/>
       <c r="W136" s="50"/>
@@ -8223,7 +8223,7 @@
       <c r="S137" s="50"/>
       <c r="T137" s="50"/>
       <c r="U137" s="50" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="V137" s="50"/>
       <c r="W137" s="50"/>
@@ -10702,11 +10702,11 @@
         <v>247</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44121.653998379632</v>
+        <v>44121.65709537037</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/covid_symptoms_daily_checks.xlsx
+++ b/forms/app/covid_symptoms_daily_checks.xlsx
@@ -1651,7 +1651,7 @@
     <t>../inputs/contact/_id</t>
   </si>
   <si>
-    <t>&lt;h2 style="text-align:center;margin-bottom:0px;"&gt;${patient_name}&lt;/h2&gt; &lt;p style="text-align:center;"&gt;${patient_age} years old&lt;/p&gt;</t>
+    <t>&lt;h2 style="text-align:center;margin-bottom:0px;"&gt;${patient_name}&lt;/h2&gt; &lt;p style="text-align:center;"&gt;${patient_id} years old&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -2220,10 +2220,10 @@
   <dimension ref="A1:AJ145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C157" sqref="C157"/>
+      <selection pane="bottomRight" activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10706,7 +10706,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44121.65709537037</v>
+        <v>44121.658503009261</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/covid_symptoms_daily_checks.xlsx
+++ b/forms/app/covid_symptoms_daily_checks.xlsx
@@ -1651,7 +1651,7 @@
     <t>../inputs/contact/_id</t>
   </si>
   <si>
-    <t>&lt;h2 style="text-align:center;margin-bottom:0px;"&gt;${patient_name}&lt;/h2&gt; &lt;p style="text-align:center;"&gt;${patient_id} years old&lt;/p&gt;</t>
+    <t>&lt;h2 style="text-align:center;margin-bottom:0px;"&gt;${patient_name}&lt;/h2&gt; &lt;p style="text-align:center;"&gt; years old&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -2220,7 +2220,7 @@
   <dimension ref="A1:AJ145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C95" sqref="C95"/>
@@ -10706,7 +10706,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44121.658503009261</v>
+        <v>44121.660024305558</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/covid_symptoms_daily_checks.xlsx
+++ b/forms/app/covid_symptoms_daily_checks.xlsx
@@ -1651,7 +1651,7 @@
     <t>../inputs/contact/_id</t>
   </si>
   <si>
-    <t>&lt;h2 style="text-align:center;margin-bottom:0px;"&gt;${patient_name}&lt;/h2&gt; &lt;p style="text-align:center;"&gt; years old&lt;/p&gt;</t>
+    <t>&lt;h2 style="text-align:center;margin-bottom:0px;"&gt;${patient_name}&lt;/h2&gt;</t>
   </si>
 </sst>
 </file>
@@ -2220,10 +2220,10 @@
   <dimension ref="A1:AJ145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C95" sqref="C95"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8632,8 +8632,8 @@
   <dimension ref="A1:Y71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57:XFD61"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10706,7 +10706,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44121.660024305558</v>
+        <v>44121.663739120369</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>
